--- a/wishlist.xlsx
+++ b/wishlist.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17895" windowHeight="6015" activeTab="1"/>
+    <workbookView activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="wishlist" sheetId="1" r:id="rId1"/>
-    <sheet name="movies" sheetId="2" r:id="rId2"/>
-    <sheet name="comics" sheetId="3" r:id="rId3"/>
-    <sheet name="toys" sheetId="4" r:id="rId4"/>
-    <sheet name="ComputerScience" sheetId="5" r:id="rId5"/>
-    <sheet name="games" sheetId="6" r:id="rId6"/>
-    <sheet name="camera" sheetId="7" r:id="rId7"/>
-    <sheet name="dad" sheetId="8" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wishlist" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="movies" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="comics" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="toys" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComputerScience" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="games" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="camera" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dad" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A24:O41"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="420">
   <si>
     <t>12-22-2017</t>
   </si>
@@ -493,6 +492,15 @@
   </si>
   <si>
     <t>Firefly: The Complete Series [Blu-ray]</t>
+  </si>
+  <si>
+    <t>Jumanji (Remastered Blu-ray + Digital)</t>
+  </si>
+  <si>
+    <t>Jurassic World [Blu-ray]</t>
+  </si>
+  <si>
+    <t>Hook [Blu-ray]</t>
   </si>
   <si>
     <t>Hellboy: An Assortment of Horrors</t>
@@ -1278,19 +1286,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -1315,6 +1324,26 @@
         <fgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0064FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF6400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffff00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1326,28 +1355,23 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+  <cellXfs count="9">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="9" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1647,19 +1671,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="27.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1667,969 +1695,975 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>15.93</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="5" t="n">
         <v>15.93</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="5" t="n">
         <v>16.41</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="6" t="n">
         <v>17.39</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>13.09</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="5" t="n">
         <v>13.09</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>14.99</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="5" t="n">
         <v>14.99</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>26.56</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="5" t="n">
         <v>26.56</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>12.64</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="5" t="n">
         <v>12.64</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>12.99</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="5" t="n">
         <v>12.99</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>5.99</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="5" t="n">
         <v>5.99</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>41.55</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="5" t="n">
         <v>41.55</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>69.989999999999995</v>
-      </c>
-      <c r="C11" s="1">
-        <v>69.989999999999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="n">
+        <v>69.98999999999999</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>69.98999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="6" t="n">
         <v>102.99</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="5" t="n">
         <v>97.98</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="6" t="n">
         <v>11.05</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="5" t="n">
         <v>10.79</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>18.25</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="5" t="n">
         <v>18.25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>13.15</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="5" t="n">
         <v>13.15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>22.17</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="5" t="n">
         <v>22.17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>10.87</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="5" t="n">
         <v>10.87</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>12.27</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="5" t="n">
         <v>12.27</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>12.19</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="5" t="n">
         <v>12.19</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>11.63</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="5" t="n">
         <v>11.63</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>10.87</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="5" t="n">
         <v>10.87</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>14.99</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="5" t="n">
         <v>14.99</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>7.19</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="5" t="n">
         <v>7.19</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>8.25</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="5" t="n">
         <v>8.25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>12.8</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="5" t="n">
         <v>12.8</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>12.99</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="5" t="n">
         <v>12.99</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>7.48</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="5" t="n">
         <v>7.48</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="2">
-        <v>8.4700000000000006</v>
-      </c>
-      <c r="C29" s="1">
-        <v>8.4600000000000009</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="n">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>8.460000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>11.67</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="5" t="n">
         <v>11.67</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>9.69</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="5" t="n">
         <v>9.69</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>11</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="5" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>41</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="5" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>7.01</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="5" t="n">
         <v>7.01</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>25.68</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="5" t="n">
         <v>25.68</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>10.07</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="5" t="n">
         <v>10.07</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="6" t="n">
         <v>18.57</v>
       </c>
-      <c r="C37" s="1">
-        <v>18.57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="5" t="n">
+        <v>18.56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>-1</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="8" t="n">
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
-      <c r="B40">
-        <v>35.770000000000003</v>
-      </c>
-      <c r="C40" s="1">
-        <v>35.770000000000003</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="n">
+        <v>35.77</v>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>35.77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
-      <c r="B41">
-        <v>18.420000000000002</v>
-      </c>
-      <c r="C41" s="1">
-        <v>18.420000000000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="n">
+        <v>18.42</v>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>18.42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>9.27</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="5" t="n">
         <v>9.27</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>43</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>14.99</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="5" t="n">
         <v>14.99</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>11.07</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="5" t="n">
         <v>11.07</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>45</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>19.89</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="5" t="n">
         <v>19.89</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>46</v>
       </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="6" t="n">
         <v>9.69</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="5" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>48</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>17.95</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="5" t="n">
         <v>17.95</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>49</v>
       </c>
-      <c r="B49">
-        <v>34.909999999999997</v>
-      </c>
-      <c r="C49" s="1">
-        <v>34.909999999999997</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="n">
+        <v>34.91</v>
+      </c>
+      <c r="C49" s="5" t="n">
+        <v>34.91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>50</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>13.6</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="5" t="n">
         <v>13.6</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>51</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>9.99</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="5" t="n">
         <v>9.99</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>52</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>14.86</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="5" t="n">
         <v>14.86</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>53</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>32</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="5" t="n">
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>54</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>12.19</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="5" t="n">
         <v>12.19</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>55</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>14.15</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="5" t="n">
         <v>14.15</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>56</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>12.18</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="5" t="n">
         <v>12.18</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>57</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>28.98</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="5" t="n">
         <v>28.98</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>58</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>10.98</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="5" t="n">
         <v>10.98</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>59</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>14.7</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="5" t="n">
         <v>14.7</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>60</v>
       </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>61</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>12.62</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="5" t="n">
         <v>12.62</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>62</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>16.25</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="5" t="n">
         <v>16.25</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>63</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="n">
         <v>5.39</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="5" t="n">
         <v>5.39</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>64</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>10.15</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="5" t="n">
         <v>10.15</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>65</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>21.18</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="5" t="n">
         <v>21.18</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>66</v>
       </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="C66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>67</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="n">
         <v>11.05</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="5" t="n">
         <v>11.05</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>68</v>
       </c>
-      <c r="B68">
-        <v>9.2200000000000006</v>
-      </c>
-      <c r="C68" s="1">
-        <v>9.2200000000000006</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B68" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="C68" s="5" t="n">
+        <v>9.220000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>69</v>
       </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-      <c r="C69" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>70</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="n">
         <v>80</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="5" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="6" t="n">
         <v>13.36</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="5" t="n">
         <v>12.97</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>72</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="n">
         <v>13.6</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="5" t="n">
         <v>13.6</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>73</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="n">
         <v>13.6</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="5" t="n">
         <v>13.6</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>74</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="n">
         <v>13.6</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="5" t="n">
         <v>13.6</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>75</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="n">
         <v>13.6</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="5" t="n">
         <v>13.6</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>76</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="n">
         <v>10.87</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="5" t="n">
         <v>10.87</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>77</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="n">
         <v>13.6</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="5" t="n">
         <v>13.6</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>78</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="n">
         <v>13.6</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="5" t="n">
         <v>13.6</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>79</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="6" t="n">
         <v>17.41</v>
       </c>
-      <c r="C79" s="1">
-        <v>16.54</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C79" s="5" t="n">
+        <v>16.24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>80</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="n">
         <v>11.03</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="5" t="n">
         <v>11.03</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>81</v>
       </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-      <c r="C81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B81" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>82</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="n">
         <v>20.16</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="5" t="n">
         <v>20.16</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>83</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="n">
         <v>10.56</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="5" t="n">
         <v>10.56</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>84</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="n">
         <v>16.8</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="5" t="n">
         <v>16.8</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>85</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="n">
         <v>19.63</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85" s="5" t="n">
         <v>19.63</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>86</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="n">
         <v>11.06</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86" s="5" t="n">
         <v>11.06</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>87</v>
       </c>
-      <c r="B87">
-        <v>8.7899999999999991</v>
-      </c>
-      <c r="C87" s="1">
-        <v>8.7899999999999991</v>
+      <c r="B87" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="C87" s="5" t="n">
+        <v>8.789999999999999</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71:XFD71"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="33.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2637,783 +2671,814 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>88</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>4.99</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="5" t="n">
         <v>4.99</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>89</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>14.99</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="5" t="n">
         <v>14.99</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>90</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>29.96</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="5" t="n">
         <v>29.96</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>91</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>15.49</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="5" t="n">
         <v>15.49</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>92</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>9.99</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="5" t="n">
         <v>9.99</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>93</v>
       </c>
-      <c r="B7">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="C7" s="1">
-        <v>19.989999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>94</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>24.99</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="5" t="n">
         <v>24.99</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>95</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>9.49</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="5" t="n">
         <v>9.49</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>96</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>97</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>98</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5" t="n">
         <v>14.99</v>
       </c>
-      <c r="C12" s="1">
-        <v>14.99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="6" t="n">
+        <v>15.45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>99</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>22.99</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="5" t="n">
         <v>22.99</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>100</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>43.71</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="5" t="n">
         <v>43.71</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>101</v>
       </c>
-      <c r="B15">
-        <v>8.7899999999999991</v>
-      </c>
-      <c r="C15" s="1">
-        <v>8.7899999999999991</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>8.789999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>102</v>
       </c>
-      <c r="B16">
-        <v>68.989999999999995</v>
-      </c>
-      <c r="C16" s="1">
-        <v>68.989999999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="n">
+        <v>68.98999999999999</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>68.98999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>103</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>9</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="5" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>104</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>9.99</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="5" t="n">
         <v>9.99</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>105</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>24.02</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="5" t="n">
         <v>24.02</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>106</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>29.99</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="5" t="n">
         <v>29.99</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>107</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>108</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>9.99</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="5" t="n">
         <v>9.99</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>109</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="6" t="n">
         <v>10.91</v>
       </c>
-      <c r="C23" s="1">
-        <v>10.91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="5" t="n">
+        <v>10.89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>110</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>24.02</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="5" t="n">
         <v>24.02</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>111</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="6" t="n">
         <v>23.99</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="5" t="n">
         <v>22.99</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>112</v>
       </c>
-      <c r="B26">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="C26" s="1">
-        <v>19.989999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="C26" s="5" t="n">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>113</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>24.95</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="5" t="n">
         <v>24.95</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>114</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>7.88</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="5" t="n">
         <v>7.88</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>115</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>47.99</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="5" t="n">
         <v>47.99</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>116</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>7.75</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="5" t="n">
         <v>7.75</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>117</v>
       </c>
-      <c r="B31">
-        <v>19.440000000000001</v>
-      </c>
-      <c r="C31" s="1">
-        <v>19.440000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="n">
+        <v>19.44</v>
+      </c>
+      <c r="C31" s="5" t="n">
+        <v>19.44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>118</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>44.79</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="5" t="n">
         <v>44.79</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>119</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>6.81</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="5" t="n">
         <v>6.81</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>120</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>6.99</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="5" t="n">
         <v>6.99</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>121</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35" s="1">
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="5" t="n">
         <v>15.99</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>122</v>
       </c>
-      <c r="B36">
-        <v>9.9700000000000006</v>
-      </c>
-      <c r="C36" s="1">
-        <v>9.9700000000000006</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>9.970000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>123</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>124</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>15.21</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="5" t="n">
         <v>15.21</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>125</v>
       </c>
-      <c r="B39">
-        <v>9.9700000000000006</v>
-      </c>
-      <c r="C39" s="1">
-        <v>9.9700000000000006</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="C39" s="5" t="n">
+        <v>9.970000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>126</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>12.64</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="5" t="n">
         <v>12.64</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>127</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>20.75</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="5" t="n">
         <v>20.75</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>128</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>6.96</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="5" t="n">
         <v>6.96</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>129</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>6.96</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="5" t="n">
         <v>6.96</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>130</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>14.97</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="5" t="n">
         <v>14.97</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>131</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>6.99</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="5" t="n">
         <v>6.99</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>132</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>14.99</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="5" t="n">
         <v>14.99</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>133</v>
       </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>134</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>14.25</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="5" t="n">
         <v>14.25</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>135</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>9.4</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="5" t="n">
         <v>9.4</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>136</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>12.28</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="5" t="n">
         <v>12.28</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>137</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>9.99</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="5" t="n">
         <v>9.99</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>138</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>13.33</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="5" t="n">
         <v>13.33</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>139</v>
       </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53" s="1">
-        <v>8.2200000000000006</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" s="5" t="n">
+        <v>8.220000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>140</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>9.69</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="5" t="n">
         <v>9.69</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>141</v>
       </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>142</v>
       </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>143</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>7.88</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="5" t="n">
         <v>7.88</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>144</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>17.97</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="5" t="n">
         <v>17.97</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>145</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" t="n">
         <v>32.99</v>
       </c>
-      <c r="C59" s="1">
-        <v>32.9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C59" s="5" t="n">
+        <v>32.99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>146</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>14.96</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="5" t="n">
         <v>14.96</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>147</v>
       </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="C61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>148</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>13.9</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="5" t="n">
         <v>13.9</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>149</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="5" t="n">
         <v>8.82</v>
       </c>
-      <c r="C63" s="1">
-        <v>8.56</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="6" t="n">
+        <v>9.49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>150</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>5.99</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="5" t="n">
         <v>5.99</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>151</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>5</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="5" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>152</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="n">
         <v>12.97</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="5" t="n">
         <v>12.97</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>153</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="n">
         <v>8.77</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="5" t="n">
         <v>8.77</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>154</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="n">
         <v>59.99</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="5" t="n">
         <v>59.99</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>155</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="n">
         <v>9.99</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="5" t="n">
         <v>9.99</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>156</v>
       </c>
-      <c r="B70" s="2">
-        <v>89.99</v>
-      </c>
-      <c r="C70" s="1">
-        <v>63.49</v>
-      </c>
-    </row>
+      <c r="B70" s="6" t="n">
+        <v>89.98999999999999</v>
+      </c>
+      <c r="C70" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" s="5" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>158</v>
+      </c>
+      <c r="C72" s="5" t="n">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" s="5" t="n">
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3"/>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="38"/>
+    <col customWidth="1" max="2" min="2" width="12.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3421,617 +3486,623 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2">
+        <v>160</v>
+      </c>
+      <c r="B2" t="n">
         <v>11.83</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="5" t="n">
         <v>11.83</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3">
+        <v>161</v>
+      </c>
+      <c r="B3" t="n">
         <v>28.81</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="5" t="n">
         <v>28.81</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B4">
+        <v>162</v>
+      </c>
+      <c r="B4" s="6" t="n">
         <v>15.71</v>
       </c>
-      <c r="C4" s="1">
-        <v>15.71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="5" t="n">
+        <v>14.81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5">
+        <v>163</v>
+      </c>
+      <c r="B5" t="n">
         <v>30.18</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="5" t="n">
         <v>30.18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B6">
+        <v>164</v>
+      </c>
+      <c r="B6" t="n">
         <v>29.91</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="5" t="n">
         <v>29.91</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B7">
+        <v>165</v>
+      </c>
+      <c r="B7" t="n">
         <v>30.15</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="5" t="n">
         <v>30.15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B8">
+        <v>166</v>
+      </c>
+      <c r="B8" t="n">
         <v>48.06</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="5" t="n">
         <v>48.06</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B9">
+        <v>167</v>
+      </c>
+      <c r="B9" t="n">
         <v>10.52</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="5" t="n">
         <v>10.52</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>165</v>
-      </c>
-      <c r="B10">
+        <v>168</v>
+      </c>
+      <c r="B10" t="n">
         <v>13.59</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="5" t="n">
         <v>13.59</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B11">
+        <v>169</v>
+      </c>
+      <c r="B11" t="n">
         <v>14.24</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="5" t="n">
         <v>14.24</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B12">
+        <v>170</v>
+      </c>
+      <c r="B12" t="n">
         <v>14.52</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="5" t="n">
         <v>14.52</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>168</v>
-      </c>
-      <c r="B13">
+        <v>171</v>
+      </c>
+      <c r="B13" t="n">
         <v>14.48</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="5" t="n">
         <v>14.48</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>169</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>170</v>
-      </c>
-      <c r="B15">
-        <v>16.989999999999998</v>
-      </c>
-      <c r="C15" s="1">
-        <v>16.989999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="B15" t="n">
+        <v>16.99</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>16.99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>171</v>
-      </c>
-      <c r="B16">
+        <v>174</v>
+      </c>
+      <c r="B16" t="n">
         <v>11.99</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="5" t="n">
         <v>11.99</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>172</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>173</v>
-      </c>
-      <c r="B18">
+        <v>176</v>
+      </c>
+      <c r="B18" t="n">
         <v>15.1</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="5" t="n">
         <v>15.1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>174</v>
-      </c>
-      <c r="B19">
+        <v>177</v>
+      </c>
+      <c r="B19" t="n">
         <v>15.99</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="5" t="n">
         <v>15.99</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>175</v>
-      </c>
-      <c r="B20">
+        <v>178</v>
+      </c>
+      <c r="B20" s="5" t="n">
         <v>24.56</v>
       </c>
-      <c r="C20" s="1">
-        <v>24.56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="6" t="n">
+        <v>29.53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>176</v>
-      </c>
-      <c r="B21">
+        <v>179</v>
+      </c>
+      <c r="B21" t="n">
         <v>13.44</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="5" t="n">
         <v>13.44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>177</v>
-      </c>
-      <c r="B22">
+        <v>180</v>
+      </c>
+      <c r="B22" t="n">
         <v>10.19</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="5" t="n">
         <v>10.19</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>178</v>
-      </c>
-      <c r="B23">
+        <v>181</v>
+      </c>
+      <c r="B23" t="n">
         <v>7.95</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="5" t="n">
         <v>7.95</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>179</v>
-      </c>
-      <c r="B24">
+        <v>182</v>
+      </c>
+      <c r="B24" t="n">
         <v>23.99</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="5" t="n">
         <v>23.99</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>180</v>
-      </c>
-      <c r="B25" s="1">
-        <v>16.170000000000002</v>
-      </c>
-      <c r="C25" s="2">
-        <v>16.329999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="B25" s="5" t="n">
+        <v>16.17</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>16.33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>181</v>
-      </c>
-      <c r="B26">
+        <v>184</v>
+      </c>
+      <c r="B26" t="n">
         <v>14.6</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="5" t="n">
         <v>14.6</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>182</v>
-      </c>
-      <c r="B27">
+        <v>185</v>
+      </c>
+      <c r="B27" t="n">
         <v>13.06</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="5" t="n">
         <v>13.06</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>183</v>
-      </c>
-      <c r="B28">
+        <v>186</v>
+      </c>
+      <c r="B28" s="6" t="n">
         <v>19.97</v>
       </c>
-      <c r="C28" s="1">
-        <v>19.97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="5" t="n">
+        <v>19.45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>184</v>
-      </c>
-      <c r="B29">
+        <v>187</v>
+      </c>
+      <c r="B29" t="n">
         <v>16.96</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="5" t="n">
         <v>16.96</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>185</v>
-      </c>
-      <c r="B30">
+        <v>188</v>
+      </c>
+      <c r="B30" s="6" t="n">
         <v>11.99</v>
       </c>
-      <c r="C30" s="1">
-        <v>11.99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="5" t="n">
+        <v>9.630000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>186</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>187</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>188</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>189</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>190</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>191</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>192</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>193</v>
-      </c>
-      <c r="B38">
+        <v>196</v>
+      </c>
+      <c r="B38" t="n">
         <v>12.93</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="5" t="n">
         <v>12.93</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>194</v>
-      </c>
-      <c r="B39" s="1">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="C39" s="2">
+        <v>197</v>
+      </c>
+      <c r="B39" s="5" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C39" s="6" t="n">
         <v>20.48</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>195</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>196</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>197</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>198</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>199</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>200</v>
-      </c>
-      <c r="B45">
+        <v>203</v>
+      </c>
+      <c r="B45" t="n">
         <v>13.59</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="5" t="n">
         <v>13.59</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>201</v>
-      </c>
-      <c r="B46">
+        <v>204</v>
+      </c>
+      <c r="B46" t="n">
         <v>15.74</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="5" t="n">
         <v>15.74</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>202</v>
-      </c>
-      <c r="B47" s="1">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="C47" s="2">
-        <v>17.489999999999998</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="B47" s="5" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="C47" s="6" t="n">
+        <v>17.49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>203</v>
-      </c>
-      <c r="B48">
+        <v>206</v>
+      </c>
+      <c r="B48" t="n">
         <v>19.82</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="5" t="n">
         <v>19.82</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>204</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>205</v>
-      </c>
-      <c r="B50">
+        <v>208</v>
+      </c>
+      <c r="B50" t="n">
         <v>13.59</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="5" t="n">
         <v>13.59</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>206</v>
-      </c>
-      <c r="B51">
+        <v>209</v>
+      </c>
+      <c r="B51" t="n">
         <v>11.72</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="5" t="n">
         <v>11.72</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>207</v>
-      </c>
-      <c r="B52">
-        <v>18.989999999999998</v>
-      </c>
-      <c r="C52" s="1">
-        <v>18.989999999999998</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="B52" s="6" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="C52" s="5" t="n">
+        <v>12.85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>208</v>
-      </c>
-      <c r="B53">
+        <v>211</v>
+      </c>
+      <c r="B53" t="n">
         <v>16.73</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="5" t="n">
         <v>16.73</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>209</v>
-      </c>
-      <c r="B54">
+        <v>212</v>
+      </c>
+      <c r="B54" s="6" t="n">
         <v>17.97</v>
       </c>
-      <c r="C54" s="1">
-        <v>17.97</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="5" t="n">
+        <v>11.44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>210</v>
-      </c>
-      <c r="B55">
-        <v>16.989999999999998</v>
-      </c>
-      <c r="C55" s="1">
-        <v>16.989999999999998</v>
+        <v>213</v>
+      </c>
+      <c r="B55" t="n">
+        <v>16.99</v>
+      </c>
+      <c r="C55" s="5" t="n">
+        <v>16.99</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="40.140625" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="40.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4039,298 +4110,304 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" s="1">
+        <v>214</v>
+      </c>
+      <c r="B2" s="5" t="n">
         <v>50.82</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="6" t="n">
         <v>50.87</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B3" s="2">
+        <v>215</v>
+      </c>
+      <c r="B3" s="6" t="n">
         <v>44.61</v>
       </c>
-      <c r="C3" s="1">
-        <v>44.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="5" t="n">
+        <v>44.47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B4">
+        <v>216</v>
+      </c>
+      <c r="B4" t="n">
         <v>36.79</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="5" t="n">
         <v>36.79</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B5">
+        <v>217</v>
+      </c>
+      <c r="B5" t="n">
         <v>39</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="5" t="n">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>215</v>
-      </c>
-      <c r="B6">
+        <v>218</v>
+      </c>
+      <c r="B6" t="n">
         <v>37.96</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="5" t="n">
         <v>37.96</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>216</v>
-      </c>
-      <c r="B7">
+        <v>219</v>
+      </c>
+      <c r="B7" t="n">
         <v>43</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="5" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>217</v>
-      </c>
-      <c r="B8">
+        <v>220</v>
+      </c>
+      <c r="B8" t="n">
         <v>38.51</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="5" t="n">
         <v>38.51</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>218</v>
-      </c>
-      <c r="B9">
+        <v>221</v>
+      </c>
+      <c r="B9" t="n">
         <v>25.99</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="5" t="n">
         <v>25.99</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>219</v>
-      </c>
-      <c r="B10">
+        <v>222</v>
+      </c>
+      <c r="B10" t="n">
         <v>9.76</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="5" t="n">
         <v>9.76</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>220</v>
-      </c>
-      <c r="B11">
+        <v>223</v>
+      </c>
+      <c r="B11" t="n">
         <v>26.95</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="5" t="n">
         <v>26.95</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>221</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>222</v>
-      </c>
-      <c r="B13">
+        <v>225</v>
+      </c>
+      <c r="B13" t="n">
         <v>13.88</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="5" t="n">
         <v>13.88</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>223</v>
-      </c>
-      <c r="B14">
+        <v>226</v>
+      </c>
+      <c r="B14" t="n">
         <v>10.64</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="5" t="n">
         <v>10.64</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>224</v>
-      </c>
-      <c r="B15">
-        <v>16.989999999999998</v>
-      </c>
-      <c r="C15" s="1">
-        <v>16.989999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="B15" t="n">
+        <v>16.99</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>16.99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>225</v>
-      </c>
-      <c r="B16">
+        <v>228</v>
+      </c>
+      <c r="B16" t="n">
         <v>12.99</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="5" t="n">
         <v>12.99</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>226</v>
-      </c>
-      <c r="B17">
+        <v>229</v>
+      </c>
+      <c r="B17" t="n">
         <v>8.99</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="5" t="n">
         <v>8.99</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>227</v>
-      </c>
-      <c r="B18">
-        <v>18.489999999999998</v>
-      </c>
-      <c r="C18" s="1">
-        <v>18.489999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="B18" t="n">
+        <v>18.49</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>18.49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>228</v>
-      </c>
-      <c r="B19">
+        <v>231</v>
+      </c>
+      <c r="B19" t="n">
         <v>24.99</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="5" t="n">
         <v>24.99</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>229</v>
-      </c>
-      <c r="B20" s="1">
+        <v>232</v>
+      </c>
+      <c r="B20" s="5" t="n">
         <v>43.99</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="6" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>230</v>
-      </c>
-      <c r="B21">
+        <v>233</v>
+      </c>
+      <c r="B21" t="n">
         <v>101.53</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="5" t="n">
         <v>101.53</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>231</v>
-      </c>
-      <c r="B22">
+        <v>234</v>
+      </c>
+      <c r="B22" t="n">
         <v>119.64</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="5" t="n">
         <v>119.64</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>232</v>
-      </c>
-      <c r="B23">
+        <v>235</v>
+      </c>
+      <c r="B23" s="6" t="n">
         <v>129.99</v>
       </c>
-      <c r="C23" s="1">
-        <v>129.99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="5" t="n">
+        <v>99.78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>233</v>
-      </c>
-      <c r="B24">
+        <v>236</v>
+      </c>
+      <c r="B24" s="6" t="n">
         <v>35.99</v>
       </c>
-      <c r="C24" s="1">
-        <v>35.99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="5" t="n">
+        <v>35.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>234</v>
-      </c>
-      <c r="B25">
+        <v>237</v>
+      </c>
+      <c r="B25" t="n">
         <v>144.99</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="5" t="n">
         <v>144.99</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>235</v>
-      </c>
-      <c r="B26" s="2">
+        <v>238</v>
+      </c>
+      <c r="B26" s="6" t="n">
         <v>128.04</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="5" t="n">
         <v>108.99</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C131"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" workbookViewId="0"/>
+    <sheetView topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="38" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4338,1453 +4415,1459 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B2">
+        <v>239</v>
+      </c>
+      <c r="B2" t="n">
         <v>20.95</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="5" t="n">
         <v>20.95</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B3" s="2">
+        <v>240</v>
+      </c>
+      <c r="B3" s="6" t="n">
         <v>27.63</v>
       </c>
-      <c r="C3" s="1">
-        <v>27.61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="5" t="n">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B4" s="2">
-        <v>38.979999999999997</v>
-      </c>
-      <c r="C4" s="1">
+        <v>241</v>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>38.98</v>
+      </c>
+      <c r="C4" s="5" t="n">
         <v>34.49</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B5">
+        <v>242</v>
+      </c>
+      <c r="B5" t="n">
         <v>5.79</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="5" t="n">
         <v>5.79</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>240</v>
-      </c>
-      <c r="B6">
+        <v>243</v>
+      </c>
+      <c r="B6" t="n">
         <v>10.99</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="5" t="n">
         <v>10.99</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>241</v>
-      </c>
-      <c r="B7">
+        <v>244</v>
+      </c>
+      <c r="B7" t="n">
         <v>8.99</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="5" t="n">
         <v>8.99</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>242</v>
-      </c>
-      <c r="B8">
+        <v>245</v>
+      </c>
+      <c r="B8" t="n">
         <v>69.88</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="5" t="n">
         <v>69.88</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>243</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>244</v>
-      </c>
-      <c r="B10">
+        <v>247</v>
+      </c>
+      <c r="B10" t="n">
         <v>59.99</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="5" t="n">
         <v>59.99</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>245</v>
-      </c>
-      <c r="B11">
-        <v>69.989999999999995</v>
-      </c>
-      <c r="C11" s="1">
-        <v>69.989999999999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+      <c r="B11" t="n">
+        <v>69.98999999999999</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>69.98999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>246</v>
-      </c>
-      <c r="B12">
+        <v>249</v>
+      </c>
+      <c r="B12" t="n">
         <v>25.48</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="5" t="n">
         <v>25.48</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>247</v>
-      </c>
-      <c r="B13">
+        <v>250</v>
+      </c>
+      <c r="B13" t="n">
         <v>40.51</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="5" t="n">
         <v>40.51</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>248</v>
-      </c>
-      <c r="B14" s="1">
+        <v>251</v>
+      </c>
+      <c r="B14" t="n">
         <v>54.07</v>
       </c>
-      <c r="C14" s="2">
-        <v>54.22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="5" t="n">
+        <v>54.07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>249</v>
-      </c>
-      <c r="B15">
+        <v>252</v>
+      </c>
+      <c r="B15" t="n">
         <v>28.05</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="5" t="n">
         <v>28.05</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>250</v>
-      </c>
-      <c r="B16">
+        <v>253</v>
+      </c>
+      <c r="B16" t="n">
         <v>39.99</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="5" t="n">
         <v>39.99</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>251</v>
-      </c>
-      <c r="B17">
+        <v>254</v>
+      </c>
+      <c r="B17" t="n">
         <v>42.89</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="5" t="n">
         <v>42.89</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>252</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>253</v>
-      </c>
-      <c r="B19" s="2">
+        <v>256</v>
+      </c>
+      <c r="B19" s="6" t="n">
         <v>39.36</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="5" t="n">
         <v>39.35</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>254</v>
-      </c>
-      <c r="B20">
+        <v>257</v>
+      </c>
+      <c r="B20" t="n">
         <v>43.37</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="5" t="n">
         <v>43.37</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>255</v>
-      </c>
-      <c r="B21">
+        <v>258</v>
+      </c>
+      <c r="B21" t="n">
         <v>27.85</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="5" t="n">
         <v>27.85</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>256</v>
-      </c>
-      <c r="B22">
+        <v>259</v>
+      </c>
+      <c r="B22" t="n">
         <v>26.39</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="5" t="n">
         <v>26.39</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>257</v>
-      </c>
-      <c r="B23">
+        <v>260</v>
+      </c>
+      <c r="B23" t="n">
         <v>17.23</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="5" t="n">
         <v>17.23</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>258</v>
-      </c>
-      <c r="B24">
-        <v>17.559999999999999</v>
-      </c>
-      <c r="C24" s="1">
-        <v>17.559999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+      <c r="B24" t="n">
+        <v>17.56</v>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>17.56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>259</v>
-      </c>
-      <c r="B25">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="C25" s="1">
-        <v>19.989999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="B25" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>260</v>
-      </c>
-      <c r="B26" s="2">
+        <v>263</v>
+      </c>
+      <c r="B26" s="6" t="n">
         <v>15.07</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="5" t="n">
         <v>15.05</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>261</v>
-      </c>
-      <c r="B27">
+        <v>264</v>
+      </c>
+      <c r="B27" t="n">
         <v>13.56</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="5" t="n">
         <v>13.56</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>262</v>
-      </c>
-      <c r="B28">
+        <v>265</v>
+      </c>
+      <c r="B28" t="n">
         <v>34.99</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="5" t="n">
         <v>34.99</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>263</v>
-      </c>
-      <c r="B29">
+        <v>266</v>
+      </c>
+      <c r="B29" t="n">
         <v>29.98</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="5" t="n">
         <v>29.98</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>264</v>
-      </c>
-      <c r="B30">
+        <v>267</v>
+      </c>
+      <c r="B30" t="n">
         <v>49.97</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="5" t="n">
         <v>49.97</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>265</v>
-      </c>
-      <c r="B31">
+        <v>268</v>
+      </c>
+      <c r="B31" t="n">
         <v>29.99</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="5" t="n">
         <v>29.99</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>266</v>
-      </c>
-      <c r="B32">
+        <v>269</v>
+      </c>
+      <c r="B32" t="n">
         <v>8.99</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="5" t="n">
         <v>8.99</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>267</v>
-      </c>
-      <c r="B33">
+        <v>270</v>
+      </c>
+      <c r="B33" t="n">
         <v>15.65</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="5" t="n">
         <v>15.65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>268</v>
-      </c>
-      <c r="B34">
+        <v>271</v>
+      </c>
+      <c r="B34" t="n">
         <v>22.5</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="5" t="n">
         <v>22.5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>269</v>
-      </c>
-      <c r="B35" s="1">
+        <v>272</v>
+      </c>
+      <c r="B35" s="5" t="n">
         <v>15.62</v>
       </c>
-      <c r="C35" s="2">
-        <v>17.55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="6" t="n">
+        <v>17.13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>270</v>
-      </c>
-      <c r="B36">
+        <v>273</v>
+      </c>
+      <c r="B36" t="n">
         <v>20.8</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="5" t="n">
         <v>20.8</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>271</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>272</v>
-      </c>
-      <c r="B38">
+        <v>275</v>
+      </c>
+      <c r="B38" t="n">
         <v>29.05</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="5" t="n">
         <v>29.05</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>273</v>
-      </c>
-      <c r="B39">
+        <v>276</v>
+      </c>
+      <c r="B39" t="n">
         <v>41.57</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="5" t="n">
         <v>41.57</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>274</v>
-      </c>
-      <c r="B40">
+        <v>277</v>
+      </c>
+      <c r="B40" t="n">
         <v>59.97</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="5" t="n">
         <v>59.97</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>275</v>
-      </c>
-      <c r="B41">
+        <v>278</v>
+      </c>
+      <c r="B41" t="n">
         <v>36</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="5" t="n">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>276</v>
-      </c>
-      <c r="B42">
+        <v>279</v>
+      </c>
+      <c r="B42" t="n">
         <v>27.99</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="5" t="n">
         <v>27.99</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>277</v>
-      </c>
-      <c r="B43">
+        <v>280</v>
+      </c>
+      <c r="B43" t="n">
         <v>19.25</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="5" t="n">
         <v>19.25</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>278</v>
-      </c>
-      <c r="B44">
+        <v>281</v>
+      </c>
+      <c r="B44" t="n">
         <v>17.7</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="5" t="n">
         <v>17.7</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>279</v>
-      </c>
-      <c r="B45">
+        <v>282</v>
+      </c>
+      <c r="B45" t="n">
         <v>22.38</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="5" t="n">
         <v>22.38</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>280</v>
-      </c>
-      <c r="B46">
+        <v>283</v>
+      </c>
+      <c r="B46" t="n">
         <v>13.38</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="5" t="n">
         <v>13.38</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>281</v>
-      </c>
-      <c r="B47">
+        <v>284</v>
+      </c>
+      <c r="B47" t="n">
         <v>8.98</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="5" t="n">
         <v>8.98</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>282</v>
-      </c>
-      <c r="B48">
+        <v>285</v>
+      </c>
+      <c r="B48" t="n">
         <v>29.5</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="5" t="n">
         <v>29.5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>283</v>
-      </c>
-      <c r="B49" s="1">
+        <v>286</v>
+      </c>
+      <c r="B49" s="5" t="n">
         <v>38.1</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="6" t="n">
         <v>38.46</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>284</v>
-      </c>
-      <c r="B50">
+        <v>287</v>
+      </c>
+      <c r="B50" t="n">
         <v>20.29</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="5" t="n">
         <v>20.29</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>285</v>
-      </c>
-      <c r="B51">
+        <v>288</v>
+      </c>
+      <c r="B51" t="n">
         <v>22.39</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="5" t="n">
         <v>22.39</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>286</v>
-      </c>
-      <c r="B52">
+        <v>289</v>
+      </c>
+      <c r="B52" t="n">
         <v>27.16</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="5" t="n">
         <v>27.16</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>287</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>288</v>
-      </c>
-      <c r="B54">
+        <v>291</v>
+      </c>
+      <c r="B54" t="n">
         <v>30.51</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="5" t="n">
         <v>30.51</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>289</v>
-      </c>
-      <c r="B55" s="2">
+        <v>292</v>
+      </c>
+      <c r="B55" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="5" t="n">
         <v>17.28</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>290</v>
-      </c>
-      <c r="B56">
+        <v>293</v>
+      </c>
+      <c r="B56" t="n">
         <v>19.27</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="5" t="n">
         <v>19.27</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>291</v>
-      </c>
-      <c r="B57">
+        <v>294</v>
+      </c>
+      <c r="B57" t="n">
         <v>15.39</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="5" t="n">
         <v>15.39</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>292</v>
-      </c>
-      <c r="B58">
+        <v>295</v>
+      </c>
+      <c r="B58" t="n">
         <v>31.81</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="5" t="n">
         <v>31.81</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>293</v>
-      </c>
-      <c r="B59" s="2">
+        <v>296</v>
+      </c>
+      <c r="B59" s="6" t="n">
         <v>25.08</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="5" t="n">
         <v>25.01</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>294</v>
-      </c>
-      <c r="B60">
+        <v>297</v>
+      </c>
+      <c r="B60" t="n">
         <v>22.16</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="5" t="n">
         <v>22.16</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>295</v>
-      </c>
-      <c r="B61">
+        <v>298</v>
+      </c>
+      <c r="B61" t="n">
         <v>59.99</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="5" t="n">
         <v>59.99</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>296</v>
-      </c>
-      <c r="B62">
+        <v>299</v>
+      </c>
+      <c r="B62" t="n">
         <v>29.29</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="5" t="n">
         <v>29.29</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>297</v>
-      </c>
-      <c r="B63">
-        <v>20.420000000000002</v>
-      </c>
-      <c r="C63" s="1">
-        <v>20.420000000000002</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="B63" t="n">
+        <v>20.42</v>
+      </c>
+      <c r="C63" s="5" t="n">
+        <v>20.42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>298</v>
-      </c>
-      <c r="B64">
+        <v>301</v>
+      </c>
+      <c r="B64" t="n">
         <v>15.78</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="5" t="n">
         <v>15.78</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>299</v>
-      </c>
-      <c r="B65">
+        <v>302</v>
+      </c>
+      <c r="B65" t="n">
         <v>24.79</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="5" t="n">
         <v>24.79</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>300</v>
-      </c>
-      <c r="B66">
-        <v>38.549999999999997</v>
-      </c>
-      <c r="C66" s="1">
-        <v>38.549999999999997</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="B66" t="n">
+        <v>38.55</v>
+      </c>
+      <c r="C66" s="5" t="n">
+        <v>38.55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>301</v>
-      </c>
-      <c r="B67">
+        <v>304</v>
+      </c>
+      <c r="B67" t="n">
         <v>12.96</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="5" t="n">
         <v>12.96</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>302</v>
-      </c>
-      <c r="B68">
-        <v>18.350000000000001</v>
-      </c>
-      <c r="C68" s="1">
-        <v>18.350000000000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="B68" t="n">
+        <v>18.35</v>
+      </c>
+      <c r="C68" s="5" t="n">
+        <v>18.35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>303</v>
-      </c>
-      <c r="B69">
+        <v>306</v>
+      </c>
+      <c r="B69" t="n">
         <v>39.94</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="5" t="n">
         <v>39.94</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>304</v>
-      </c>
-      <c r="B70">
+        <v>307</v>
+      </c>
+      <c r="B70" t="n">
         <v>10</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="5" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>305</v>
-      </c>
-      <c r="B71">
-        <v>0</v>
-      </c>
-      <c r="C71" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>306</v>
-      </c>
-      <c r="B72">
+        <v>309</v>
+      </c>
+      <c r="B72" t="n">
         <v>21.37</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="5" t="n">
         <v>21.37</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>307</v>
-      </c>
-      <c r="B73">
+        <v>310</v>
+      </c>
+      <c r="B73" t="n">
         <v>60.61</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="5" t="n">
         <v>60.61</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>308</v>
-      </c>
-      <c r="B74">
+        <v>311</v>
+      </c>
+      <c r="B74" t="n">
         <v>23.96</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="5" t="n">
         <v>23.96</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>309</v>
-      </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="C75" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0</v>
+      </c>
+      <c r="C75" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>310</v>
-      </c>
-      <c r="B76">
+        <v>313</v>
+      </c>
+      <c r="B76" t="n">
         <v>25.01</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="5" t="n">
         <v>25.01</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>311</v>
-      </c>
-      <c r="B77">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="C77" s="1">
-        <v>9.9499999999999993</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+      <c r="B77" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="C77" s="5" t="n">
+        <v>9.949999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>312</v>
-      </c>
-      <c r="B78">
+        <v>315</v>
+      </c>
+      <c r="B78" t="n">
         <v>30.26</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="5" t="n">
         <v>30.26</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>313</v>
-      </c>
-      <c r="B79">
-        <v>35.380000000000003</v>
-      </c>
-      <c r="C79" s="1">
-        <v>35.380000000000003</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+      <c r="B79" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="C79" s="5" t="n">
+        <v>35.38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>314</v>
-      </c>
-      <c r="B80">
-        <v>37.369999999999997</v>
-      </c>
-      <c r="C80" s="1">
-        <v>37.369999999999997</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="B80" t="n">
+        <v>37.37</v>
+      </c>
+      <c r="C80" s="5" t="n">
+        <v>37.37</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>315</v>
-      </c>
-      <c r="B81">
+        <v>318</v>
+      </c>
+      <c r="B81" t="n">
         <v>29.99</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="5" t="n">
         <v>29.99</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>316</v>
-      </c>
-      <c r="B82">
+        <v>319</v>
+      </c>
+      <c r="B82" t="n">
         <v>24.99</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="5" t="n">
         <v>24.99</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>317</v>
-      </c>
-      <c r="B83">
+        <v>320</v>
+      </c>
+      <c r="B83" t="n">
         <v>28.99</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="5" t="n">
         <v>28.99</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>318</v>
-      </c>
-      <c r="B84">
+        <v>321</v>
+      </c>
+      <c r="B84" t="n">
         <v>3.98</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="5" t="n">
         <v>3.98</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>319</v>
-      </c>
-      <c r="B85">
+        <v>322</v>
+      </c>
+      <c r="B85" t="n">
         <v>22.39</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85" s="5" t="n">
         <v>22.39</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>320</v>
-      </c>
-      <c r="B86">
+        <v>323</v>
+      </c>
+      <c r="B86" t="n">
         <v>23.49</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86" s="5" t="n">
         <v>23.49</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>321</v>
-      </c>
-      <c r="B87">
+        <v>324</v>
+      </c>
+      <c r="B87" t="n">
         <v>19.3</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87" s="5" t="n">
         <v>19.3</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>322</v>
-      </c>
-      <c r="B88">
+        <v>325</v>
+      </c>
+      <c r="B88" t="n">
         <v>23.99</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="5" t="n">
         <v>23.99</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>323</v>
-      </c>
-      <c r="B89">
+        <v>326</v>
+      </c>
+      <c r="B89" t="n">
         <v>23.99</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="5" t="n">
         <v>23.99</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>324</v>
-      </c>
-      <c r="B90">
+        <v>327</v>
+      </c>
+      <c r="B90" t="n">
         <v>23.49</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90" s="5" t="n">
         <v>23.49</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>325</v>
-      </c>
-      <c r="B91">
-        <v>16.190000000000001</v>
-      </c>
-      <c r="C91" s="1">
-        <v>16.190000000000001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="B91" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="C91" s="5" t="n">
+        <v>16.19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>326</v>
-      </c>
-      <c r="B92">
+        <v>329</v>
+      </c>
+      <c r="B92" t="n">
         <v>21.13</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92" s="5" t="n">
         <v>21.13</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>327</v>
-      </c>
-      <c r="B93">
+        <v>330</v>
+      </c>
+      <c r="B93" t="n">
         <v>24.99</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93" s="5" t="n">
         <v>24.99</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>328</v>
-      </c>
-      <c r="B94">
+        <v>331</v>
+      </c>
+      <c r="B94" t="n">
         <v>29.97</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94" s="5" t="n">
         <v>29.97</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>329</v>
-      </c>
-      <c r="B95">
+        <v>332</v>
+      </c>
+      <c r="B95" t="n">
         <v>22.76</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95" s="5" t="n">
         <v>22.76</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>330</v>
-      </c>
-      <c r="B96">
-        <v>0</v>
-      </c>
-      <c r="C96" s="1">
-        <v>90.87</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0</v>
+      </c>
+      <c r="C96" s="5" t="n">
+        <v>93.56</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>331</v>
-      </c>
-      <c r="B97">
+        <v>334</v>
+      </c>
+      <c r="B97" t="n">
         <v>21.36</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97" s="5" t="n">
         <v>21.36</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>332</v>
-      </c>
-      <c r="B98">
+        <v>335</v>
+      </c>
+      <c r="B98" t="n">
         <v>29.65</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="5" t="n">
         <v>29.65</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>333</v>
-      </c>
-      <c r="B99">
+        <v>336</v>
+      </c>
+      <c r="B99" t="n">
         <v>24.43</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" s="5" t="n">
         <v>24.43</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>334</v>
-      </c>
-      <c r="B100">
+        <v>337</v>
+      </c>
+      <c r="B100" t="n">
         <v>23.96</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100" s="5" t="n">
         <v>23.96</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>335</v>
-      </c>
-      <c r="B101">
+        <v>338</v>
+      </c>
+      <c r="B101" t="n">
         <v>49.95</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101" s="5" t="n">
         <v>49.95</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>336</v>
-      </c>
-      <c r="B102">
+        <v>339</v>
+      </c>
+      <c r="B102" t="n">
         <v>35.24</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102" s="5" t="n">
         <v>35.24</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>337</v>
-      </c>
-      <c r="B103">
+        <v>340</v>
+      </c>
+      <c r="B103" t="n">
         <v>7.99</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103" s="5" t="n">
         <v>7.99</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>338</v>
-      </c>
-      <c r="B104">
+        <v>341</v>
+      </c>
+      <c r="B104" t="n">
         <v>40.79</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104" s="5" t="n">
         <v>40.79</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>339</v>
-      </c>
-      <c r="B105">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="C105" s="1">
-        <v>9.9499999999999993</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+      <c r="B105" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="C105" s="5" t="n">
+        <v>9.949999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>340</v>
-      </c>
-      <c r="B106">
+        <v>343</v>
+      </c>
+      <c r="B106" t="n">
         <v>41.29</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C106" s="5" t="n">
         <v>41.29</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>341</v>
-      </c>
-      <c r="B107">
-        <v>69.260000000000005</v>
-      </c>
-      <c r="C107" s="1">
-        <v>69.260000000000005</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="B107" t="n">
+        <v>69.26000000000001</v>
+      </c>
+      <c r="C107" s="5" t="n">
+        <v>69.26000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>342</v>
-      </c>
-      <c r="B108">
+        <v>345</v>
+      </c>
+      <c r="B108" t="n">
         <v>79.97</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108" s="5" t="n">
         <v>79.97</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>343</v>
-      </c>
-      <c r="B109">
-        <v>0</v>
-      </c>
-      <c r="C109" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0</v>
+      </c>
+      <c r="C109" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>344</v>
-      </c>
-      <c r="B110">
+        <v>347</v>
+      </c>
+      <c r="B110" t="n">
         <v>45.8</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C110" s="5" t="n">
         <v>45.8</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>345</v>
-      </c>
-      <c r="B111">
+        <v>348</v>
+      </c>
+      <c r="B111" t="n">
         <v>22.93</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111" s="5" t="n">
         <v>22.93</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>346</v>
-      </c>
-      <c r="B112">
+        <v>349</v>
+      </c>
+      <c r="B112" t="n">
         <v>42.09</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C112" s="5" t="n">
         <v>42.09</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>347</v>
-      </c>
-      <c r="B113">
+        <v>350</v>
+      </c>
+      <c r="B113" t="n">
         <v>103.75</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C113" s="5" t="n">
         <v>103.75</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>348</v>
-      </c>
-      <c r="B114">
+        <v>351</v>
+      </c>
+      <c r="B114" t="n">
         <v>12.47</v>
       </c>
-      <c r="C114" s="1">
+      <c r="C114" s="5" t="n">
         <v>12.47</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>349</v>
-      </c>
-      <c r="B115">
+        <v>352</v>
+      </c>
+      <c r="B115" t="n">
         <v>24</v>
       </c>
-      <c r="C115" s="1">
+      <c r="C115" s="5" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>350</v>
-      </c>
-      <c r="B116">
-        <v>0</v>
-      </c>
-      <c r="C116" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C116" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>351</v>
-      </c>
-      <c r="B117">
-        <v>0</v>
-      </c>
-      <c r="C117" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0</v>
+      </c>
+      <c r="C117" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>352</v>
-      </c>
-      <c r="B118">
+        <v>355</v>
+      </c>
+      <c r="B118" t="n">
         <v>49.99</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C118" s="5" t="n">
         <v>49.99</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>353</v>
-      </c>
-      <c r="B119">
+        <v>356</v>
+      </c>
+      <c r="B119" t="n">
         <v>58.74</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C119" s="5" t="n">
         <v>58.74</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>354</v>
-      </c>
-      <c r="B120">
-        <v>0</v>
-      </c>
-      <c r="C120" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+      <c r="C120" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>355</v>
-      </c>
-      <c r="B121" s="1">
-        <v>144.55000000000001</v>
-      </c>
-      <c r="C121" s="2">
+        <v>358</v>
+      </c>
+      <c r="B121" s="5" t="n">
+        <v>144.55</v>
+      </c>
+      <c r="C121" s="6" t="n">
         <v>144.72</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>356</v>
-      </c>
-      <c r="B122">
+        <v>359</v>
+      </c>
+      <c r="B122" t="n">
         <v>47.3</v>
       </c>
-      <c r="C122" s="1">
+      <c r="C122" s="5" t="n">
         <v>47.3</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>357</v>
-      </c>
-      <c r="B123">
-        <v>39.979999999999997</v>
-      </c>
-      <c r="C123" s="1">
-        <v>39.979999999999997</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="B123" t="n">
+        <v>39.98</v>
+      </c>
+      <c r="C123" s="5" t="n">
+        <v>39.98</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>358</v>
-      </c>
-      <c r="B124">
+        <v>361</v>
+      </c>
+      <c r="B124" t="n">
         <v>51.08</v>
       </c>
-      <c r="C124" s="1">
+      <c r="C124" s="5" t="n">
         <v>51.08</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>359</v>
-      </c>
-      <c r="B125">
+        <v>362</v>
+      </c>
+      <c r="B125" t="n">
         <v>44.69</v>
       </c>
-      <c r="C125" s="1">
+      <c r="C125" s="5" t="n">
         <v>44.69</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>360</v>
-      </c>
-      <c r="B126">
+        <v>363</v>
+      </c>
+      <c r="B126" t="n">
         <v>24.5</v>
       </c>
-      <c r="C126" s="1">
+      <c r="C126" s="5" t="n">
         <v>24.5</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>361</v>
-      </c>
-      <c r="B127">
-        <v>0</v>
-      </c>
-      <c r="C127" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0</v>
+      </c>
+      <c r="C127" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>362</v>
-      </c>
-      <c r="B128">
-        <v>0</v>
-      </c>
-      <c r="C128" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0</v>
+      </c>
+      <c r="C128" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>363</v>
-      </c>
-      <c r="B129">
+        <v>366</v>
+      </c>
+      <c r="B129" t="n">
         <v>17.95</v>
       </c>
-      <c r="C129" s="1">
+      <c r="C129" s="5" t="n">
         <v>17.95</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>364</v>
-      </c>
-      <c r="B130">
+        <v>367</v>
+      </c>
+      <c r="B130" t="n">
         <v>25.2</v>
       </c>
-      <c r="C130" s="1">
+      <c r="C130" s="5" t="n">
         <v>25.2</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>365</v>
-      </c>
-      <c r="B131">
+        <v>368</v>
+      </c>
+      <c r="B131" t="n">
         <v>31</v>
       </c>
-      <c r="C131" s="1">
+      <c r="C131" s="5" t="n">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -5792,298 +5875,304 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>366</v>
-      </c>
-      <c r="B2">
+        <v>369</v>
+      </c>
+      <c r="B2" t="n">
         <v>39.99</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="5" t="n">
         <v>39.99</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>367</v>
-      </c>
-      <c r="B3">
+        <v>370</v>
+      </c>
+      <c r="B3" t="n">
         <v>29.99</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="5" t="n">
         <v>29.99</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>368</v>
-      </c>
-      <c r="B4" s="2">
+        <v>371</v>
+      </c>
+      <c r="B4" s="6" t="n">
         <v>43.8</v>
       </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B5">
+        <v>372</v>
+      </c>
+      <c r="B5" t="n">
         <v>48.99</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="5" t="n">
         <v>48.99</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>370</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>371</v>
-      </c>
-      <c r="B7">
+        <v>374</v>
+      </c>
+      <c r="B7" t="n">
         <v>42.45</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="5" t="n">
         <v>42.45</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>372</v>
-      </c>
-      <c r="B8">
+        <v>375</v>
+      </c>
+      <c r="B8" t="n">
         <v>39.99</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="5" t="n">
         <v>39.99</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>373</v>
-      </c>
-      <c r="B9" s="2">
+        <v>376</v>
+      </c>
+      <c r="B9" s="6" t="n">
         <v>20.92</v>
       </c>
-      <c r="C9" s="1">
-        <v>20.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="5" t="n">
+        <v>20.27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>374</v>
-      </c>
-      <c r="B10">
+        <v>377</v>
+      </c>
+      <c r="B10" t="n">
         <v>29.99</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="5" t="n">
         <v>29.99</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>375</v>
-      </c>
-      <c r="B11" s="2">
+        <v>378</v>
+      </c>
+      <c r="B11" s="6" t="n">
         <v>38.75</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="5" t="n">
         <v>20.49</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>376</v>
-      </c>
-      <c r="B12" s="1">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="C12" s="2">
+        <v>379</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="C12" s="6" t="n">
         <v>24.97</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>377</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>378</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>379</v>
-      </c>
-      <c r="B15">
+        <v>382</v>
+      </c>
+      <c r="B15" t="n">
         <v>39.99</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="5" t="n">
         <v>39.99</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>380</v>
-      </c>
-      <c r="B16" s="2">
+        <v>383</v>
+      </c>
+      <c r="B16" s="6" t="n">
         <v>45.97</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="5" t="n">
         <v>44.56</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>381</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>41.99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>382</v>
-      </c>
-      <c r="B18">
+        <v>385</v>
+      </c>
+      <c r="B18" t="n">
         <v>21.95</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="5" t="n">
         <v>21.95</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>383</v>
-      </c>
-      <c r="B19" s="2">
+        <v>386</v>
+      </c>
+      <c r="B19" s="6" t="n">
         <v>24.85</v>
       </c>
-      <c r="C19" s="1">
-        <v>22.81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="5" t="n">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>384</v>
-      </c>
-      <c r="B20">
-        <v>8.4499999999999993</v>
-      </c>
-      <c r="C20" s="1">
-        <v>8.4499999999999993</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="B20" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>8.449999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>385</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>386</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>387</v>
-      </c>
-      <c r="B23">
+        <v>390</v>
+      </c>
+      <c r="B23" s="6" t="n">
         <v>28.44</v>
       </c>
-      <c r="C23" s="1">
-        <v>28.44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>388</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>389</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26" s="3">
+        <v>393</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="7" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="27.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -6091,202 +6180,206 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>391</v>
-      </c>
-      <c r="B2">
+        <v>394</v>
+      </c>
+      <c r="B2" t="n">
         <v>125</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="5" t="n">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>392</v>
-      </c>
-      <c r="B3">
+        <v>395</v>
+      </c>
+      <c r="B3" t="n">
         <v>79.87</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="5" t="n">
         <v>79.87</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>393</v>
-      </c>
-      <c r="B4">
+        <v>396</v>
+      </c>
+      <c r="B4" t="n">
         <v>4.97</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="5" t="n">
         <v>4.97</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>394</v>
-      </c>
-      <c r="B5">
+        <v>397</v>
+      </c>
+      <c r="B5" t="n">
         <v>177</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="5" t="n">
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>396</v>
-      </c>
-      <c r="B7">
+        <v>399</v>
+      </c>
+      <c r="B7" t="n">
         <v>5.79</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="5" t="n">
         <v>5.79</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>397</v>
-      </c>
-      <c r="B8">
+        <v>400</v>
+      </c>
+      <c r="B8" t="n">
         <v>4.95</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="5" t="n">
         <v>4.95</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>398</v>
-      </c>
-      <c r="B9">
+        <v>401</v>
+      </c>
+      <c r="B9" t="n">
         <v>7.99</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="5" t="n">
         <v>7.99</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>399</v>
-      </c>
-      <c r="B10">
+        <v>402</v>
+      </c>
+      <c r="B10" t="n">
         <v>11</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="5" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>400</v>
-      </c>
-      <c r="B11">
-        <v>17.989999999999998</v>
-      </c>
-      <c r="C11" s="1">
-        <v>17.989999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+      <c r="B11" t="n">
+        <v>17.99</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>17.99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>401</v>
-      </c>
-      <c r="B12">
-        <v>149.94999999999999</v>
-      </c>
-      <c r="C12" s="1">
-        <v>149.94999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+      <c r="B12" t="n">
+        <v>149.95</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>149.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>402</v>
-      </c>
-      <c r="B13">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="C13" s="1">
-        <v>19.989999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+      <c r="B13" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>403</v>
-      </c>
-      <c r="B14">
+        <v>406</v>
+      </c>
+      <c r="B14" t="n">
         <v>7.49</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="5" t="n">
         <v>7.49</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>404</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>24.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>405</v>
-      </c>
-      <c r="B16">
+        <v>408</v>
+      </c>
+      <c r="B16" t="n">
         <v>12.99</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="5" t="n">
         <v>12.99</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>406</v>
-      </c>
-      <c r="B17">
+        <v>409</v>
+      </c>
+      <c r="B17" t="n">
         <v>7.99</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="5" t="n">
         <v>7.99</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="27.42578125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="10.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -6294,118 +6387,118 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>407</v>
-      </c>
-      <c r="B2">
+        <v>410</v>
+      </c>
+      <c r="B2" t="n">
         <v>119</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="5" t="n">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>408</v>
-      </c>
-      <c r="B3">
+        <v>411</v>
+      </c>
+      <c r="B3" t="n">
         <v>64.97</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="5" t="n">
         <v>64.97</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>409</v>
-      </c>
-      <c r="B4">
+        <v>412</v>
+      </c>
+      <c r="B4" t="n">
         <v>19.95</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="5" t="n">
         <v>19.95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>410</v>
-      </c>
-      <c r="B5">
+        <v>413</v>
+      </c>
+      <c r="B5" t="n">
         <v>4.59</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="5" t="n">
         <v>4.59</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>411</v>
-      </c>
-      <c r="B6">
+        <v>414</v>
+      </c>
+      <c r="B6" t="n">
         <v>22.99</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="5" t="n">
         <v>22.99</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>412</v>
-      </c>
-      <c r="B7">
-        <v>34.950000000000003</v>
-      </c>
-      <c r="C7" s="1">
-        <v>34.950000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+      <c r="B7" t="n">
+        <v>34.95</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>34.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>413</v>
-      </c>
-      <c r="B8">
+        <v>416</v>
+      </c>
+      <c r="B8" t="n">
         <v>12.99</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="5" t="n">
         <v>12.99</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>414</v>
-      </c>
-      <c r="B9">
+        <v>417</v>
+      </c>
+      <c r="B9" t="n">
         <v>13.13</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="5" t="n">
         <v>13.13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>415</v>
-      </c>
-      <c r="B10" s="2">
+        <v>418</v>
+      </c>
+      <c r="B10" s="6" t="n">
         <v>59.96</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="5" t="n">
         <v>56.99</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>416</v>
-      </c>
-      <c r="B11">
+        <v>419</v>
+      </c>
+      <c r="B11" t="n">
         <v>54.94</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="5" t="n">
         <v>54.94</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/wishlist.xlsx
+++ b/wishlist.xlsx
@@ -21,12 +21,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="421">
   <si>
     <t>12-22-2017</t>
   </si>
   <si>
     <t>12-23-2017</t>
+  </si>
+  <si>
+    <t>12-24-2017</t>
   </si>
   <si>
     <t>It's All Relative: Adventures Up and Down the World’s Family Tree</t>
@@ -1676,9 +1679,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
@@ -1687,457 +1690,580 @@
     <col customWidth="1" max="1" min="1" width="27.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>15.93</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" t="n">
         <v>15.93</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="5" t="n">
+        <v>15.93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="5" t="n">
         <v>16.41</v>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="C3" t="n">
         <v>17.39</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="6" t="n">
+        <v>17.39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>13.09</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" t="n">
         <v>13.09</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="5" t="n">
+        <v>13.09</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
         <v>14.99</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" t="n">
         <v>14.99</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="5" t="n">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="n">
         <v>26.56</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" t="n">
         <v>26.56</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="5" t="n">
+        <v>26.56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="n">
         <v>12.64</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" t="n">
         <v>12.64</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="5" t="n">
+        <v>12.64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" t="n">
         <v>12.99</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" t="n">
         <v>12.99</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="5" t="n">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="n">
         <v>5.99</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" t="n">
         <v>5.99</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="5" t="n">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" t="n">
         <v>41.55</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" t="n">
         <v>41.55</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="5" t="n">
+        <v>41.55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" t="n">
         <v>69.98999999999999</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" t="n">
         <v>69.98999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="5" t="n">
+        <v>69.98999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="6" t="n">
         <v>102.99</v>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" t="n">
         <v>97.98</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="5" t="n">
+        <v>97.98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" s="6" t="n">
         <v>11.05</v>
       </c>
-      <c r="C13" s="5" t="n">
+      <c r="C13" t="n">
         <v>10.79</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="5" t="n">
+        <v>10.79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" t="n">
         <v>18.25</v>
       </c>
-      <c r="C14" s="5" t="n">
+      <c r="C14" t="n">
         <v>18.25</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="5" t="n">
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" t="n">
         <v>13.15</v>
       </c>
-      <c r="C15" s="5" t="n">
+      <c r="C15" t="n">
         <v>13.15</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="5" t="n">
+        <v>13.15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" t="n">
         <v>22.17</v>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="C16" t="n">
         <v>22.17</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="5" t="n">
+        <v>22.17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" t="n">
         <v>10.87</v>
       </c>
-      <c r="C17" s="5" t="n">
+      <c r="C17" t="n">
         <v>10.87</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="5" t="n">
+        <v>10.87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" t="n">
         <v>12.27</v>
       </c>
-      <c r="C18" s="5" t="n">
+      <c r="C18" t="n">
         <v>12.27</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="5" t="n">
+        <v>12.27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" t="n">
         <v>12.19</v>
       </c>
-      <c r="C19" s="5" t="n">
+      <c r="C19" t="n">
         <v>12.19</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="5" t="n">
+        <v>12.19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" t="n">
         <v>11.63</v>
       </c>
-      <c r="C20" s="5" t="n">
+      <c r="C20" t="n">
         <v>11.63</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="5" t="n">
+        <v>11.63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" t="n">
         <v>10.87</v>
       </c>
-      <c r="C21" s="5" t="n">
+      <c r="C21" t="n">
         <v>10.87</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="5" t="n">
+        <v>10.87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22" t="n">
         <v>14.99</v>
       </c>
-      <c r="C22" s="5" t="n">
+      <c r="C22" t="n">
         <v>14.99</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="5" t="n">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="n">
         <v>7.19</v>
       </c>
-      <c r="C23" s="5" t="n">
+      <c r="C23" t="n">
         <v>7.19</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="5" t="n">
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24" t="n">
         <v>8.25</v>
       </c>
-      <c r="C24" s="5" t="n">
+      <c r="C24" t="n">
         <v>8.25</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="5" t="n">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
-      <c r="C25" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26" t="n">
         <v>12.8</v>
       </c>
-      <c r="C26" s="5" t="n">
+      <c r="C26" t="n">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="5" t="n">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" t="n">
         <v>12.99</v>
       </c>
-      <c r="C27" s="5" t="n">
+      <c r="C27" t="n">
         <v>12.99</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="5" t="n">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28" t="n">
         <v>7.48</v>
       </c>
-      <c r="C28" s="5" t="n">
+      <c r="C28" t="n">
         <v>7.48</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="5" t="n">
+        <v>7.48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29" s="6" t="n">
         <v>8.470000000000001</v>
       </c>
-      <c r="C29" s="5" t="n">
+      <c r="C29" t="n">
         <v>8.460000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="5" t="n">
+        <v>8.460000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30" t="n">
         <v>11.67</v>
       </c>
-      <c r="C30" s="5" t="n">
+      <c r="C30" t="n">
         <v>11.67</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="5" t="n">
+        <v>11.67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31" t="n">
         <v>9.69</v>
       </c>
-      <c r="C31" s="5" t="n">
+      <c r="C31" t="n">
         <v>9.69</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="5" t="n">
+        <v>9.69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32" t="n">
         <v>11</v>
       </c>
-      <c r="C32" s="5" t="n">
+      <c r="C32" t="n">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="5" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33" t="n">
         <v>41</v>
       </c>
-      <c r="C33" s="5" t="n">
+      <c r="C33" t="n">
         <v>41</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="5" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34" t="n">
         <v>7.01</v>
       </c>
-      <c r="C34" s="5" t="n">
+      <c r="C34" t="n">
         <v>7.01</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="5" t="n">
+        <v>7.01</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35" t="n">
         <v>25.68</v>
       </c>
-      <c r="C35" s="5" t="n">
+      <c r="C35" t="n">
         <v>25.68</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="5" t="n">
+        <v>25.68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36" t="n">
         <v>10.07</v>
       </c>
-      <c r="C36" s="5" t="n">
+      <c r="C36" t="n">
         <v>10.07</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="5" t="n">
+        <v>10.07</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37" s="6" t="n">
         <v>18.57</v>
       </c>
-      <c r="C37" s="5" t="n">
+      <c r="C37" t="n">
         <v>18.56</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" s="5" t="n">
+        <v>18.56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
       </c>
-      <c r="C38" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39" t="n">
         <v>-1</v>
       </c>
-      <c r="C39" s="8" t="n">
+      <c r="C39" t="n">
         <v>-1</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" s="8" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40" t="n">
         <v>35.77</v>
       </c>
-      <c r="C40" s="5" t="n">
+      <c r="C40" t="n">
         <v>35.77</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" s="5" t="n">
+        <v>35.77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41" t="n">
         <v>18.42</v>
       </c>
-      <c r="C41" s="5" t="n">
+      <c r="C41" t="n">
         <v>18.42</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" s="5" t="n">
+        <v>18.42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42" t="n">
         <v>9.27</v>
@@ -2145,54 +2271,69 @@
       <c r="C42" s="5" t="n">
         <v>9.27</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" s="6" t="n">
+        <v>11.17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43" t="n">
         <v>14.99</v>
       </c>
-      <c r="C43" s="5" t="n">
+      <c r="C43" t="n">
         <v>14.99</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" s="5" t="n">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44" t="n">
         <v>11.07</v>
       </c>
-      <c r="C44" s="5" t="n">
+      <c r="C44" t="n">
         <v>11.07</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" s="5" t="n">
+        <v>11.07</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45" t="n">
         <v>19.89</v>
       </c>
-      <c r="C45" s="5" t="n">
+      <c r="C45" t="n">
         <v>19.89</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" s="5" t="n">
+        <v>19.89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
-      <c r="C46" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47" s="6" t="n">
         <v>9.69</v>
@@ -2200,444 +2341,567 @@
       <c r="C47" s="5" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" t="n">
+        <v>9.59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48" t="n">
         <v>17.95</v>
       </c>
-      <c r="C48" s="5" t="n">
+      <c r="C48" t="n">
         <v>17.95</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" s="5" t="n">
+        <v>17.95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49" t="n">
         <v>34.91</v>
       </c>
-      <c r="C49" s="5" t="n">
+      <c r="C49" t="n">
         <v>34.91</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" s="5" t="n">
+        <v>34.91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50" t="n">
         <v>13.6</v>
       </c>
-      <c r="C50" s="5" t="n">
+      <c r="C50" t="n">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" s="5" t="n">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B51" t="n">
         <v>9.99</v>
       </c>
-      <c r="C51" s="5" t="n">
+      <c r="C51" t="n">
         <v>9.99</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" s="5" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B52" t="n">
         <v>14.86</v>
       </c>
-      <c r="C52" s="5" t="n">
+      <c r="C52" t="n">
         <v>14.86</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" s="5" t="n">
+        <v>14.86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B53" t="n">
         <v>32</v>
       </c>
-      <c r="C53" s="5" t="n">
+      <c r="C53" t="n">
         <v>32</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" s="5" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54" t="n">
         <v>12.19</v>
       </c>
-      <c r="C54" s="5" t="n">
+      <c r="C54" t="n">
         <v>12.19</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" s="5" t="n">
+        <v>12.19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B55" t="n">
         <v>14.15</v>
       </c>
-      <c r="C55" s="5" t="n">
+      <c r="C55" t="n">
         <v>14.15</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" s="5" t="n">
+        <v>14.15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B56" t="n">
         <v>12.18</v>
       </c>
-      <c r="C56" s="5" t="n">
+      <c r="C56" t="n">
         <v>12.18</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" s="5" t="n">
+        <v>12.18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B57" t="n">
         <v>28.98</v>
       </c>
-      <c r="C57" s="5" t="n">
+      <c r="C57" t="n">
         <v>28.98</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" s="5" t="n">
+        <v>28.98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B58" t="n">
         <v>10.98</v>
       </c>
-      <c r="C58" s="5" t="n">
+      <c r="C58" t="n">
         <v>10.98</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" s="5" t="n">
+        <v>10.98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B59" t="n">
         <v>14.7</v>
       </c>
-      <c r="C59" s="5" t="n">
+      <c r="C59" t="n">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" s="5" t="n">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
       </c>
-      <c r="C60" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B61" t="n">
         <v>12.62</v>
       </c>
-      <c r="C61" s="5" t="n">
+      <c r="C61" t="n">
         <v>12.62</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" s="5" t="n">
+        <v>12.62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B62" t="n">
         <v>16.25</v>
       </c>
-      <c r="C62" s="5" t="n">
+      <c r="C62" t="n">
         <v>16.25</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" s="5" t="n">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B63" t="n">
         <v>5.39</v>
       </c>
-      <c r="C63" s="5" t="n">
+      <c r="C63" t="n">
         <v>5.39</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" s="5" t="n">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B64" t="n">
         <v>10.15</v>
       </c>
-      <c r="C64" s="5" t="n">
+      <c r="C64" t="n">
         <v>10.15</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" s="5" t="n">
+        <v>10.15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B65" t="n">
         <v>21.18</v>
       </c>
-      <c r="C65" s="5" t="n">
+      <c r="C65" t="n">
         <v>21.18</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65" s="5" t="n">
+        <v>21.18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
-      <c r="C66" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B67" t="n">
         <v>11.05</v>
       </c>
-      <c r="C67" s="5" t="n">
+      <c r="C67" t="n">
         <v>11.05</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67" s="5" t="n">
+        <v>11.05</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B68" t="n">
         <v>9.220000000000001</v>
       </c>
-      <c r="C68" s="5" t="n">
+      <c r="C68" t="n">
         <v>9.220000000000001</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68" s="5" t="n">
+        <v>9.220000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
       </c>
-      <c r="C69" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B70" t="n">
         <v>80</v>
       </c>
-      <c r="C70" s="5" t="n">
+      <c r="C70" t="n">
         <v>80</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70" s="5" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B71" s="6" t="n">
         <v>13.36</v>
       </c>
-      <c r="C71" s="5" t="n">
+      <c r="C71" t="n">
         <v>12.97</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71" s="5" t="n">
+        <v>12.97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B72" t="n">
         <v>13.6</v>
       </c>
-      <c r="C72" s="5" t="n">
+      <c r="C72" t="n">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72" s="5" t="n">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B73" t="n">
         <v>13.6</v>
       </c>
-      <c r="C73" s="5" t="n">
+      <c r="C73" t="n">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73" s="5" t="n">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B74" t="n">
         <v>13.6</v>
       </c>
-      <c r="C74" s="5" t="n">
+      <c r="C74" t="n">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74" s="5" t="n">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B75" t="n">
         <v>13.6</v>
       </c>
-      <c r="C75" s="5" t="n">
+      <c r="C75" t="n">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75" s="5" t="n">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B76" t="n">
         <v>10.87</v>
       </c>
-      <c r="C76" s="5" t="n">
+      <c r="C76" t="n">
         <v>10.87</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76" s="5" t="n">
+        <v>10.87</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B77" t="n">
         <v>13.6</v>
       </c>
-      <c r="C77" s="5" t="n">
+      <c r="C77" t="n">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77" s="5" t="n">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B78" t="n">
         <v>13.6</v>
       </c>
-      <c r="C78" s="5" t="n">
+      <c r="C78" t="n">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78" s="5" t="n">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B79" s="6" t="n">
         <v>17.41</v>
       </c>
-      <c r="C79" s="5" t="n">
+      <c r="C79" t="n">
         <v>16.24</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79" s="5" t="n">
+        <v>16.24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B80" t="n">
         <v>11.03</v>
       </c>
-      <c r="C80" s="5" t="n">
+      <c r="C80" t="n">
         <v>11.03</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80" s="5" t="n">
+        <v>11.03</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
       </c>
-      <c r="C81" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B82" t="n">
         <v>20.16</v>
       </c>
-      <c r="C82" s="5" t="n">
+      <c r="C82" t="n">
         <v>20.16</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82" s="5" t="n">
+        <v>20.16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B83" t="n">
         <v>10.56</v>
       </c>
-      <c r="C83" s="5" t="n">
+      <c r="C83" t="n">
         <v>10.56</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83" s="5" t="n">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B84" t="n">
         <v>16.8</v>
       </c>
-      <c r="C84" s="5" t="n">
+      <c r="C84" t="n">
         <v>16.8</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84" s="5" t="n">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B85" t="n">
         <v>19.63</v>
       </c>
-      <c r="C85" s="5" t="n">
+      <c r="C85" t="n">
         <v>19.63</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85" s="5" t="n">
+        <v>19.63</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B86" t="n">
         <v>11.06</v>
       </c>
-      <c r="C86" s="5" t="n">
+      <c r="C86" t="n">
         <v>11.06</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86" s="5" t="n">
+        <v>11.06</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B87" t="n">
         <v>8.789999999999999</v>
       </c>
-      <c r="C87" s="5" t="n">
+      <c r="C87" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="D87" s="5" t="n">
         <v>8.789999999999999</v>
       </c>
     </row>
@@ -2652,10 +2916,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71:XFD71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -2663,688 +2927,874 @@
     <col customWidth="1" max="1" min="1" width="33.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B2" t="n">
         <v>4.99</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" t="n">
         <v>4.99</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="5" t="n">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" t="n">
         <v>14.99</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" t="n">
         <v>14.99</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="5" t="n">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" t="n">
         <v>29.96</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" t="n">
         <v>29.96</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="5" t="n">
+        <v>29.96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B5" t="n">
         <v>15.49</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" t="n">
         <v>15.49</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="5" t="n">
+        <v>15.49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B6" t="n">
         <v>9.99</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" t="n">
         <v>9.99</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="5" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B7" t="n">
         <v>19.99</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" t="n">
         <v>19.99</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="5" t="n">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" t="n">
         <v>24.99</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" t="n">
         <v>24.99</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="5" t="n">
+        <v>24.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B9" t="n">
         <v>9.49</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" t="n">
         <v>9.49</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="5" t="n">
+        <v>9.49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B12" s="5" t="n">
         <v>14.99</v>
       </c>
-      <c r="C12" s="6" t="n">
+      <c r="C12" t="n">
         <v>15.45</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="6" t="n">
+        <v>15.45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B13" t="n">
         <v>22.99</v>
       </c>
-      <c r="C13" s="5" t="n">
+      <c r="C13" t="n">
         <v>22.99</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="5" t="n">
+        <v>22.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B14" t="n">
         <v>43.71</v>
       </c>
-      <c r="C14" s="5" t="n">
+      <c r="C14" t="n">
         <v>43.71</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="5" t="n">
+        <v>43.71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B15" t="n">
         <v>8.789999999999999</v>
       </c>
-      <c r="C15" s="5" t="n">
+      <c r="C15" t="n">
         <v>8.789999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="5" t="n">
+        <v>8.789999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B16" t="n">
         <v>68.98999999999999</v>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="C16" t="n">
         <v>68.98999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="5" t="n">
+        <v>68.98999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B17" t="n">
         <v>9</v>
       </c>
-      <c r="C17" s="5" t="n">
+      <c r="C17" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B18" t="n">
         <v>9.99</v>
       </c>
-      <c r="C18" s="5" t="n">
+      <c r="C18" t="n">
         <v>9.99</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="5" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B19" t="n">
         <v>24.02</v>
       </c>
-      <c r="C19" s="5" t="n">
+      <c r="C19" t="n">
         <v>24.02</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="5" t="n">
+        <v>24.02</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B20" t="n">
         <v>29.99</v>
       </c>
-      <c r="C20" s="5" t="n">
+      <c r="C20" t="n">
         <v>29.99</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="5" t="n">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
-      <c r="C21" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B22" t="n">
         <v>9.99</v>
       </c>
-      <c r="C22" s="5" t="n">
+      <c r="C22" t="n">
         <v>9.99</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="5" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23" s="6" t="n">
+        <v>110</v>
+      </c>
+      <c r="B23" t="n">
         <v>10.91</v>
       </c>
       <c r="C23" s="5" t="n">
         <v>10.89</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="6" t="n">
+        <v>10.91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B24" t="n">
         <v>24.02</v>
       </c>
-      <c r="C24" s="5" t="n">
+      <c r="C24" t="n">
         <v>24.02</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="5" t="n">
+        <v>24.02</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B25" s="6" t="n">
+        <v>112</v>
+      </c>
+      <c r="B25" t="n">
         <v>23.99</v>
       </c>
       <c r="C25" s="5" t="n">
         <v>22.99</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="6" t="n">
+        <v>24.95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B26" t="n">
         <v>19.99</v>
       </c>
-      <c r="C26" s="5" t="n">
+      <c r="C26" t="n">
         <v>19.99</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="5" t="n">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B27" t="n">
         <v>24.95</v>
       </c>
-      <c r="C27" s="5" t="n">
+      <c r="C27" t="n">
         <v>24.95</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="5" t="n">
+        <v>24.95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B28" t="n">
         <v>7.88</v>
       </c>
-      <c r="C28" s="5" t="n">
+      <c r="C28" t="n">
         <v>7.88</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="5" t="n">
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B29" t="n">
         <v>47.99</v>
       </c>
-      <c r="C29" s="5" t="n">
+      <c r="C29" t="n">
         <v>47.99</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="5" t="n">
+        <v>47.99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B30" t="n">
         <v>7.75</v>
       </c>
-      <c r="C30" s="5" t="n">
+      <c r="C30" t="n">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="5" t="n">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B31" t="n">
         <v>19.44</v>
       </c>
-      <c r="C31" s="5" t="n">
+      <c r="C31" t="n">
         <v>19.44</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="5" t="n">
+        <v>19.44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B32" t="n">
         <v>44.79</v>
       </c>
-      <c r="C32" s="5" t="n">
+      <c r="C32" t="n">
         <v>44.79</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="5" t="n">
+        <v>44.79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B33" t="n">
         <v>6.81</v>
       </c>
-      <c r="C33" s="5" t="n">
+      <c r="C33" t="n">
         <v>6.81</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="5" t="n">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B34" t="n">
         <v>6.99</v>
       </c>
-      <c r="C34" s="5" t="n">
+      <c r="C34" t="n">
         <v>6.99</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="5" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
       </c>
-      <c r="C35" s="5" t="n">
+      <c r="C35" t="n">
         <v>15.99</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="5" t="n">
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B36" t="n">
         <v>9.970000000000001</v>
       </c>
-      <c r="C36" s="5" t="n">
+      <c r="C36" t="n">
         <v>9.970000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="5" t="n">
+        <v>9.970000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
-      <c r="C37" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B38" t="n">
         <v>15.21</v>
       </c>
-      <c r="C38" s="5" t="n">
+      <c r="C38" t="n">
         <v>15.21</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="5" t="n">
+        <v>15.21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B39" t="n">
         <v>9.970000000000001</v>
       </c>
-      <c r="C39" s="5" t="n">
+      <c r="C39" t="n">
         <v>9.970000000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" s="5" t="n">
+        <v>9.970000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B40" t="n">
         <v>12.64</v>
       </c>
-      <c r="C40" s="5" t="n">
+      <c r="C40" t="n">
         <v>12.64</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" s="5" t="n">
+        <v>12.64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B41" t="n">
         <v>20.75</v>
       </c>
-      <c r="C41" s="5" t="n">
+      <c r="C41" t="n">
         <v>20.75</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" s="5" t="n">
+        <v>20.75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B42" t="n">
         <v>6.96</v>
       </c>
-      <c r="C42" s="5" t="n">
+      <c r="C42" t="n">
         <v>6.96</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" s="5" t="n">
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B43" t="n">
         <v>6.96</v>
       </c>
-      <c r="C43" s="5" t="n">
+      <c r="C43" t="n">
         <v>6.96</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" s="5" t="n">
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B44" t="n">
         <v>14.97</v>
       </c>
-      <c r="C44" s="5" t="n">
+      <c r="C44" t="n">
         <v>14.97</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" s="5" t="n">
+        <v>14.97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B45" t="n">
         <v>6.99</v>
       </c>
-      <c r="C45" s="5" t="n">
+      <c r="C45" t="n">
         <v>6.99</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" s="5" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B46" t="n">
         <v>14.99</v>
       </c>
-      <c r="C46" s="5" t="n">
+      <c r="C46" t="n">
         <v>14.99</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" s="5" t="n">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
-      <c r="C47" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B48" t="n">
         <v>14.25</v>
       </c>
-      <c r="C48" s="5" t="n">
+      <c r="C48" t="n">
         <v>14.25</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" s="5" t="n">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B49" t="n">
         <v>9.4</v>
       </c>
-      <c r="C49" s="5" t="n">
+      <c r="C49" t="n">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" s="5" t="n">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B50" t="n">
         <v>12.28</v>
       </c>
-      <c r="C50" s="5" t="n">
+      <c r="C50" t="n">
         <v>12.28</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" s="5" t="n">
+        <v>12.28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B51" t="n">
         <v>9.99</v>
       </c>
-      <c r="C51" s="5" t="n">
+      <c r="C51" t="n">
         <v>9.99</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" s="5" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B52" t="n">
         <v>13.33</v>
       </c>
-      <c r="C52" s="5" t="n">
+      <c r="C52" t="n">
         <v>13.33</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" s="5" t="n">
+        <v>13.33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
-      <c r="C53" s="5" t="n">
+      <c r="C53" t="n">
         <v>8.220000000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" s="5" t="n">
+        <v>8.220000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B54" t="n">
         <v>9.69</v>
       </c>
-      <c r="C54" s="5" t="n">
+      <c r="C54" t="n">
         <v>9.69</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" s="5" t="n">
+        <v>9.69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
-      <c r="C55" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
-      <c r="C56" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B57" t="n">
         <v>7.88</v>
       </c>
-      <c r="C57" s="5" t="n">
+      <c r="C57" t="n">
         <v>7.88</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" s="5" t="n">
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B58" t="n">
         <v>17.97</v>
       </c>
-      <c r="C58" s="5" t="n">
+      <c r="C58" t="n">
         <v>17.97</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" s="5" t="n">
+        <v>17.97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B59" t="n">
         <v>32.99</v>
       </c>
-      <c r="C59" s="5" t="n">
+      <c r="C59" t="n">
         <v>32.99</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" s="5" t="n">
+        <v>32.99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B60" t="n">
         <v>14.96</v>
       </c>
-      <c r="C60" s="5" t="n">
+      <c r="C60" t="n">
         <v>14.96</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" s="5" t="n">
+        <v>14.96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
       </c>
-      <c r="C61" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B62" t="n">
         <v>13.9</v>
       </c>
-      <c r="C62" s="5" t="n">
+      <c r="C62" t="n">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" s="5" t="n">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B63" s="5" t="n">
         <v>8.82</v>
@@ -3352,109 +3802,150 @@
       <c r="C63" s="6" t="n">
         <v>9.49</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" t="n">
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B64" t="n">
         <v>5.99</v>
       </c>
-      <c r="C64" s="5" t="n">
+      <c r="C64" t="n">
         <v>5.99</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" s="5" t="n">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B65" t="n">
         <v>5</v>
       </c>
-      <c r="C65" s="5" t="n">
+      <c r="C65" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B66" t="n">
         <v>12.97</v>
       </c>
-      <c r="C66" s="5" t="n">
+      <c r="C66" t="n">
         <v>12.97</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66" s="5" t="n">
+        <v>12.97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B67" t="n">
         <v>8.77</v>
       </c>
-      <c r="C67" s="5" t="n">
+      <c r="C67" t="n">
         <v>8.77</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67" s="5" t="n">
+        <v>8.77</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B68" t="n">
         <v>59.99</v>
       </c>
-      <c r="C68" s="5" t="n">
+      <c r="C68" t="n">
         <v>59.99</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68" s="5" t="n">
+        <v>59.99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B69" t="n">
         <v>9.99</v>
       </c>
-      <c r="C69" s="5" t="n">
+      <c r="C69" t="n">
         <v>9.99</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69" s="5" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B70" s="6" t="n">
         <v>89.98999999999999</v>
       </c>
-      <c r="C70" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>157</v>
-      </c>
-      <c r="C71" s="5" t="n">
+        <v>158</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" t="n">
         <v>9.99</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71" s="5" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>158</v>
-      </c>
-      <c r="C72" s="5" t="n">
+        <v>159</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" t="n">
         <v>11.99</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72" s="5" t="n">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>159</v>
-      </c>
-      <c r="C73" s="5" t="n">
+        <v>160</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" t="n">
         <v>7.88</v>
       </c>
-    </row>
-    <row r="74" spans="1:3"/>
+      <c r="D73" s="5" t="n">
+        <v>7.88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -3466,7 +3957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3478,605 +3969,770 @@
     <col customWidth="1" max="2" min="2" width="12.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B2" t="n">
         <v>11.83</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" t="n">
         <v>11.83</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="5" t="n">
+        <v>11.83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B3" t="n">
         <v>28.81</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" t="n">
         <v>28.81</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="5" t="n">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B4" s="6" t="n">
         <v>15.71</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" t="n">
         <v>14.81</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="5" t="n">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B5" t="n">
         <v>30.18</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" t="n">
         <v>30.18</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="5" t="n">
+        <v>30.18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B6" t="n">
         <v>29.91</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" t="n">
         <v>29.91</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="5" t="n">
+        <v>29.91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B7" t="n">
         <v>30.15</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" t="n">
         <v>30.15</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="5" t="n">
+        <v>30.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B8" t="n">
         <v>48.06</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" t="n">
         <v>48.06</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="5" t="n">
+        <v>48.06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B9" t="n">
         <v>10.52</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" t="n">
         <v>10.52</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="5" t="n">
+        <v>10.52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B10" t="n">
         <v>13.59</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" t="n">
         <v>13.59</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="5" t="n">
+        <v>13.59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B11" t="n">
         <v>14.24</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" t="n">
         <v>14.24</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="5" t="n">
+        <v>14.24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B12" t="n">
         <v>14.52</v>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" t="n">
         <v>14.52</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="5" t="n">
+        <v>14.52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B13" t="n">
         <v>14.48</v>
       </c>
-      <c r="C13" s="5" t="n">
+      <c r="C13" t="n">
         <v>14.48</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="5" t="n">
+        <v>14.48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B15" t="n">
         <v>16.99</v>
       </c>
-      <c r="C15" s="5" t="n">
+      <c r="C15" t="n">
         <v>16.99</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="5" t="n">
+        <v>16.99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B16" t="n">
         <v>11.99</v>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="C16" t="n">
         <v>11.99</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="5" t="n">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B18" t="n">
         <v>15.1</v>
       </c>
-      <c r="C18" s="5" t="n">
+      <c r="C18" t="n">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="5" t="n">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B19" t="n">
         <v>15.99</v>
       </c>
-      <c r="C19" s="5" t="n">
+      <c r="C19" t="n">
         <v>15.99</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="5" t="n">
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>178</v>
-      </c>
-      <c r="B20" s="5" t="n">
+        <v>179</v>
+      </c>
+      <c r="B20" t="n">
         <v>24.56</v>
       </c>
       <c r="C20" s="6" t="n">
         <v>29.53</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="5" t="n">
+        <v>24.56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B21" t="n">
         <v>13.44</v>
       </c>
-      <c r="C21" s="5" t="n">
+      <c r="C21" t="n">
         <v>13.44</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="5" t="n">
+        <v>13.44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B22" t="n">
         <v>10.19</v>
       </c>
-      <c r="C22" s="5" t="n">
+      <c r="C22" t="n">
         <v>10.19</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="5" t="n">
+        <v>10.19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B23" t="n">
         <v>7.95</v>
       </c>
-      <c r="C23" s="5" t="n">
+      <c r="C23" t="n">
         <v>7.95</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="5" t="n">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B24" t="n">
         <v>23.99</v>
       </c>
-      <c r="C24" s="5" t="n">
+      <c r="C24" t="n">
         <v>23.99</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="5" t="n">
+        <v>23.99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B25" s="5" t="n">
         <v>16.17</v>
       </c>
-      <c r="C25" s="6" t="n">
+      <c r="C25" t="n">
         <v>16.33</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="6" t="n">
+        <v>16.33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B26" t="n">
         <v>14.6</v>
       </c>
-      <c r="C26" s="5" t="n">
+      <c r="C26" t="n">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="5" t="n">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B27" t="n">
         <v>13.06</v>
       </c>
-      <c r="C27" s="5" t="n">
+      <c r="C27" t="n">
         <v>13.06</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="5" t="n">
+        <v>13.06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B28" s="6" t="n">
         <v>19.97</v>
       </c>
-      <c r="C28" s="5" t="n">
+      <c r="C28" t="n">
         <v>19.45</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="5" t="n">
+        <v>19.45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B29" t="n">
         <v>16.96</v>
       </c>
-      <c r="C29" s="5" t="n">
+      <c r="C29" t="n">
         <v>16.96</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="5" t="n">
+        <v>16.96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B30" s="6" t="n">
         <v>11.99</v>
       </c>
-      <c r="C30" s="5" t="n">
+      <c r="C30" t="n">
         <v>9.630000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="5" t="n">
+        <v>9.630000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
-      <c r="C31" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
-      <c r="C32" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
       </c>
-      <c r="C33" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
       </c>
-      <c r="C34" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
       </c>
-      <c r="C35" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
-      <c r="C36" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
-      <c r="C37" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B38" t="n">
         <v>12.93</v>
       </c>
-      <c r="C38" s="5" t="n">
+      <c r="C38" t="n">
         <v>12.93</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="5" t="n">
+        <v>12.93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B39" s="5" t="n">
         <v>18.1</v>
       </c>
-      <c r="C39" s="6" t="n">
+      <c r="C39" t="n">
         <v>20.48</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" s="6" t="n">
+        <v>20.48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
-      <c r="C40" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
-      <c r="C41" s="5" t="n">
+      <c r="C41" t="n">
         <v>15.9</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" s="5" t="n">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
       </c>
-      <c r="C42" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
-      <c r="C43" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
-      <c r="C44" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B45" t="n">
         <v>13.59</v>
       </c>
-      <c r="C45" s="5" t="n">
+      <c r="C45" t="n">
         <v>13.59</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" s="5" t="n">
+        <v>13.59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B46" t="n">
         <v>15.74</v>
       </c>
-      <c r="C46" s="5" t="n">
+      <c r="C46" t="n">
         <v>15.74</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" s="5" t="n">
+        <v>15.74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B47" s="5" t="n">
         <v>17.1</v>
       </c>
-      <c r="C47" s="6" t="n">
+      <c r="C47" t="n">
         <v>17.49</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" s="6" t="n">
+        <v>17.49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B48" t="n">
         <v>19.82</v>
       </c>
-      <c r="C48" s="5" t="n">
+      <c r="C48" t="n">
         <v>19.82</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" s="5" t="n">
+        <v>19.82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
-      <c r="C49" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B50" t="n">
         <v>13.59</v>
       </c>
-      <c r="C50" s="5" t="n">
+      <c r="C50" t="n">
         <v>13.59</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" s="5" t="n">
+        <v>13.59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B51" t="n">
         <v>11.72</v>
       </c>
-      <c r="C51" s="5" t="n">
+      <c r="C51" t="n">
         <v>11.72</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" s="5" t="n">
+        <v>11.72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B52" s="6" t="n">
         <v>18.99</v>
       </c>
-      <c r="C52" s="5" t="n">
+      <c r="C52" t="n">
         <v>12.85</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" s="5" t="n">
+        <v>12.85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B53" t="n">
         <v>16.73</v>
       </c>
-      <c r="C53" s="5" t="n">
+      <c r="C53" t="n">
         <v>16.73</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" s="5" t="n">
+        <v>16.73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B54" s="6" t="n">
         <v>17.97</v>
       </c>
-      <c r="C54" s="5" t="n">
+      <c r="C54" t="n">
         <v>11.44</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" s="5" t="n">
+        <v>11.44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B55" t="n">
         <v>16.99</v>
       </c>
-      <c r="C55" s="5" t="n">
+      <c r="C55" t="n">
+        <v>16.99</v>
+      </c>
+      <c r="D55" s="5" t="n">
         <v>16.99</v>
       </c>
     </row>
@@ -4091,7 +4747,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4102,286 +4758,364 @@
     <col customWidth="1" max="1" min="1" width="40.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>50.82</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" t="n">
         <v>50.87</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="6" t="n">
+        <v>50.87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B3" s="6" t="n">
+        <v>216</v>
+      </c>
+      <c r="B3" t="n">
         <v>44.61</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>44.47</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="6" t="n">
+        <v>44.61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B4" t="n">
         <v>36.79</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" t="n">
         <v>36.79</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="5" t="n">
+        <v>36.79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B5" t="n">
         <v>39</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" t="n">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="5" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B6" t="n">
         <v>37.96</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="6" t="n">
         <v>37.96</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="5" t="n">
+        <v>36.28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B7" t="n">
         <v>43</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" t="n">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="5" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B8" t="n">
         <v>38.51</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" t="n">
         <v>38.51</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="5" t="n">
+        <v>38.51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B9" t="n">
         <v>25.99</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" t="n">
         <v>25.99</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="5" t="n">
+        <v>25.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B10" t="n">
         <v>9.76</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" t="n">
         <v>9.76</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="5" t="n">
+        <v>9.76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B11" t="n">
         <v>26.95</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" s="6" t="n">
         <v>26.95</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="5" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B13" t="n">
         <v>13.88</v>
       </c>
-      <c r="C13" s="5" t="n">
+      <c r="C13" t="n">
         <v>13.88</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="5" t="n">
+        <v>13.88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B14" t="n">
         <v>10.64</v>
       </c>
-      <c r="C14" s="5" t="n">
+      <c r="C14" t="n">
         <v>10.64</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="5" t="n">
+        <v>10.64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B15" t="n">
         <v>16.99</v>
       </c>
-      <c r="C15" s="5" t="n">
+      <c r="C15" t="n">
         <v>16.99</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="5" t="n">
+        <v>16.99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B16" t="n">
         <v>12.99</v>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="C16" t="n">
         <v>12.99</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="5" t="n">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B17" t="n">
         <v>8.99</v>
       </c>
-      <c r="C17" s="5" t="n">
+      <c r="C17" t="n">
         <v>8.99</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="5" t="n">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B18" t="n">
         <v>18.49</v>
       </c>
-      <c r="C18" s="5" t="n">
+      <c r="C18" t="n">
         <v>18.49</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="5" t="n">
+        <v>18.49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B19" t="n">
         <v>24.99</v>
       </c>
-      <c r="C19" s="5" t="n">
+      <c r="C19" t="n">
         <v>24.99</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="5" t="n">
+        <v>24.99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B20" s="5" t="n">
         <v>43.99</v>
       </c>
-      <c r="C20" s="6" t="n">
+      <c r="C20" t="n">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="6" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B21" t="n">
         <v>101.53</v>
       </c>
-      <c r="C21" s="5" t="n">
+      <c r="C21" t="n">
         <v>101.53</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="5" t="n">
+        <v>101.53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B22" t="n">
         <v>119.64</v>
       </c>
-      <c r="C22" s="5" t="n">
+      <c r="C22" t="n">
         <v>119.64</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="5" t="n">
+        <v>119.64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B23" s="6" t="n">
         <v>129.99</v>
       </c>
-      <c r="C23" s="5" t="n">
+      <c r="C23" t="n">
         <v>99.78</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="5" t="n">
+        <v>99.78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B24" s="6" t="n">
         <v>35.99</v>
       </c>
-      <c r="C24" s="5" t="n">
+      <c r="C24" t="n">
         <v>35.95</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="5" t="n">
+        <v>35.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B25" t="n">
         <v>144.99</v>
       </c>
-      <c r="C25" s="5" t="n">
+      <c r="C25" t="n">
         <v>144.99</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="5" t="n">
+        <v>144.99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B26" s="6" t="n">
         <v>128.04</v>
       </c>
-      <c r="C26" s="5" t="n">
+      <c r="C26" t="n">
+        <v>108.99</v>
+      </c>
+      <c r="D26" s="5" t="n">
         <v>108.99</v>
       </c>
     </row>
@@ -4396,7 +5130,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C131"/>
+  <dimension ref="A1:D131"/>
   <sheetViews>
     <sheetView topLeftCell="A108" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4407,149 +5141,188 @@
     <col customWidth="1" max="1" min="1" width="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B2" t="n">
         <v>20.95</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" t="n">
         <v>20.95</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="5" t="n">
+        <v>20.95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B3" s="6" t="n">
         <v>27.63</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" t="n">
         <v>27.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="5" t="n">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B4" s="6" t="n">
         <v>38.98</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" t="n">
         <v>34.49</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="5" t="n">
+        <v>34.49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B5" t="n">
         <v>5.79</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" t="n">
         <v>5.79</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="5" t="n">
+        <v>5.79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B6" t="n">
         <v>10.99</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" t="n">
         <v>10.99</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="5" t="n">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B7" t="n">
         <v>8.99</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" t="n">
         <v>8.99</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="5" t="n">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B8" t="n">
         <v>69.88</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="6" t="n">
         <v>69.88</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="5" t="n">
+        <v>63.42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B10" t="n">
         <v>59.99</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" t="n">
         <v>59.99</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="5" t="n">
+        <v>59.99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B11" t="n">
         <v>69.98999999999999</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" t="n">
         <v>69.98999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="5" t="n">
+        <v>69.98999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B12" t="n">
         <v>25.48</v>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" t="n">
         <v>25.48</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="5" t="n">
+        <v>25.48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B13" t="n">
         <v>40.51</v>
       </c>
-      <c r="C13" s="5" t="n">
+      <c r="C13" s="6" t="n">
         <v>40.51</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="5" t="n">
+        <v>31.16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B14" t="n">
         <v>54.07</v>
@@ -4557,219 +5330,279 @@
       <c r="C14" s="5" t="n">
         <v>54.07</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="6" t="n">
+        <v>54.27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B15" t="n">
         <v>28.05</v>
       </c>
-      <c r="C15" s="5" t="n">
+      <c r="C15" t="n">
         <v>28.05</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="5" t="n">
+        <v>28.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B16" t="n">
         <v>39.99</v>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="C16" t="n">
         <v>39.99</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="5" t="n">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B17" t="n">
         <v>42.89</v>
       </c>
-      <c r="C17" s="5" t="n">
+      <c r="C17" t="n">
         <v>42.89</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="5" t="n">
+        <v>42.89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="C18" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B19" s="6" t="n">
         <v>39.36</v>
       </c>
-      <c r="C19" s="5" t="n">
+      <c r="C19" t="n">
         <v>39.35</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="5" t="n">
+        <v>39.35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B20" t="n">
         <v>43.37</v>
       </c>
-      <c r="C20" s="5" t="n">
+      <c r="C20" t="n">
         <v>43.37</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="5" t="n">
+        <v>43.37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B21" t="n">
         <v>27.85</v>
       </c>
-      <c r="C21" s="5" t="n">
+      <c r="C21" t="n">
         <v>27.85</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="5" t="n">
+        <v>27.85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B22" t="n">
         <v>26.39</v>
       </c>
-      <c r="C22" s="5" t="n">
+      <c r="C22" t="n">
         <v>26.39</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="5" t="n">
+        <v>26.39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B23" t="n">
         <v>17.23</v>
       </c>
-      <c r="C23" s="5" t="n">
+      <c r="C23" t="n">
         <v>17.23</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="5" t="n">
+        <v>17.23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B24" t="n">
         <v>17.56</v>
       </c>
-      <c r="C24" s="5" t="n">
+      <c r="C24" t="n">
         <v>17.56</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="5" t="n">
+        <v>17.56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B25" t="n">
         <v>19.99</v>
       </c>
-      <c r="C25" s="5" t="n">
+      <c r="C25" t="n">
         <v>19.99</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="5" t="n">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B26" s="6" t="n">
         <v>15.07</v>
       </c>
-      <c r="C26" s="5" t="n">
+      <c r="C26" t="n">
         <v>15.05</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="5" t="n">
+        <v>15.05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B27" t="n">
         <v>13.56</v>
       </c>
-      <c r="C27" s="5" t="n">
+      <c r="C27" t="n">
         <v>13.56</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="5" t="n">
+        <v>13.56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B28" t="n">
         <v>34.99</v>
       </c>
-      <c r="C28" s="5" t="n">
+      <c r="C28" t="n">
         <v>34.99</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="5" t="n">
+        <v>34.99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B29" t="n">
         <v>29.98</v>
       </c>
-      <c r="C29" s="5" t="n">
+      <c r="C29" t="n">
         <v>29.98</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="5" t="n">
+        <v>29.98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B30" t="n">
         <v>49.97</v>
       </c>
-      <c r="C30" s="5" t="n">
+      <c r="C30" t="n">
         <v>49.97</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="5" t="n">
+        <v>49.97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B31" t="n">
         <v>29.99</v>
       </c>
-      <c r="C31" s="5" t="n">
+      <c r="C31" t="n">
         <v>29.99</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="5" t="n">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B32" t="n">
         <v>8.99</v>
       </c>
-      <c r="C32" s="5" t="n">
+      <c r="C32" t="n">
         <v>8.99</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="5" t="n">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B33" t="n">
         <v>15.65</v>
       </c>
-      <c r="C33" s="5" t="n">
+      <c r="C33" t="n">
         <v>15.65</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="5" t="n">
+        <v>15.65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B34" t="n">
         <v>22.5</v>
@@ -4777,10 +5610,13 @@
       <c r="C34" s="5" t="n">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="6" t="n">
+        <v>24.72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B35" s="5" t="n">
         <v>15.62</v>
@@ -4788,153 +5624,195 @@
       <c r="C35" s="6" t="n">
         <v>17.13</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" t="n">
+        <v>17.09</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B36" t="n">
         <v>20.8</v>
       </c>
-      <c r="C36" s="5" t="n">
+      <c r="C36" t="n">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="5" t="n">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
-      <c r="C37" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B38" t="n">
         <v>29.05</v>
       </c>
-      <c r="C38" s="5" t="n">
+      <c r="C38" s="6" t="n">
         <v>29.05</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="5" t="n">
+        <v>28.98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B39" t="n">
         <v>41.57</v>
       </c>
-      <c r="C39" s="5" t="n">
+      <c r="C39" t="n">
         <v>41.57</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" s="5" t="n">
+        <v>41.57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B40" t="n">
         <v>59.97</v>
       </c>
-      <c r="C40" s="5" t="n">
+      <c r="C40" t="n">
         <v>59.97</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" s="5" t="n">
+        <v>59.97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B41" t="n">
         <v>36</v>
       </c>
-      <c r="C41" s="5" t="n">
+      <c r="C41" t="n">
         <v>36</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" s="5" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B42" t="n">
         <v>27.99</v>
       </c>
-      <c r="C42" s="5" t="n">
+      <c r="C42" t="n">
         <v>27.99</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" s="5" t="n">
+        <v>27.99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B43" t="n">
         <v>19.25</v>
       </c>
-      <c r="C43" s="5" t="n">
+      <c r="C43" t="n">
         <v>19.25</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" s="5" t="n">
+        <v>19.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B44" t="n">
         <v>17.7</v>
       </c>
-      <c r="C44" s="5" t="n">
+      <c r="C44" t="n">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" s="5" t="n">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B45" t="n">
         <v>22.38</v>
       </c>
-      <c r="C45" s="5" t="n">
+      <c r="C45" t="n">
         <v>22.38</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" s="5" t="n">
+        <v>22.38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B46" t="n">
         <v>13.38</v>
       </c>
-      <c r="C46" s="5" t="n">
+      <c r="C46" t="n">
         <v>13.38</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" s="5" t="n">
+        <v>13.38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B47" t="n">
         <v>8.98</v>
       </c>
-      <c r="C47" s="5" t="n">
+      <c r="C47" t="n">
         <v>8.98</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" s="5" t="n">
+        <v>8.98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B48" t="n">
         <v>29.5</v>
       </c>
-      <c r="C48" s="5" t="n">
+      <c r="C48" t="n">
         <v>29.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" s="5" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B49" s="5" t="n">
         <v>38.1</v>
@@ -4942,582 +5820,741 @@
       <c r="C49" s="6" t="n">
         <v>38.46</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" t="n">
+        <v>38.45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B50" t="n">
         <v>20.29</v>
       </c>
-      <c r="C50" s="5" t="n">
+      <c r="C50" s="6" t="n">
         <v>20.29</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" s="5" t="n">
+        <v>9.039999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B51" t="n">
         <v>22.39</v>
       </c>
-      <c r="C51" s="5" t="n">
+      <c r="C51" t="n">
         <v>22.39</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" s="5" t="n">
+        <v>22.39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B52" t="n">
         <v>27.16</v>
       </c>
-      <c r="C52" s="5" t="n">
+      <c r="C52" s="6" t="n">
         <v>27.16</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" s="5" t="n">
+        <v>27.15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
-      <c r="C53" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B54" t="n">
         <v>30.51</v>
       </c>
-      <c r="C54" s="5" t="n">
+      <c r="C54" t="n">
         <v>30.51</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" s="5" t="n">
+        <v>30.51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B55" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="C55" s="5" t="n">
+      <c r="C55" t="n">
         <v>17.28</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" s="5" t="n">
+        <v>17.28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B56" t="n">
         <v>19.27</v>
       </c>
-      <c r="C56" s="5" t="n">
+      <c r="C56" t="n">
         <v>19.27</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" s="5" t="n">
+        <v>19.27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B57" t="n">
         <v>15.39</v>
       </c>
-      <c r="C57" s="5" t="n">
+      <c r="C57" t="n">
         <v>15.39</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" s="5" t="n">
+        <v>15.39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B58" t="n">
         <v>31.81</v>
       </c>
-      <c r="C58" s="5" t="n">
+      <c r="C58" t="n">
         <v>31.81</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" s="5" t="n">
+        <v>31.81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B59" s="6" t="n">
         <v>25.08</v>
       </c>
-      <c r="C59" s="5" t="n">
+      <c r="C59" t="n">
         <v>25.01</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" s="5" t="n">
+        <v>25.01</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B60" t="n">
         <v>22.16</v>
       </c>
-      <c r="C60" s="5" t="n">
+      <c r="C60" t="n">
         <v>22.16</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" s="5" t="n">
+        <v>22.16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B61" t="n">
         <v>59.99</v>
       </c>
-      <c r="C61" s="5" t="n">
+      <c r="C61" t="n">
         <v>59.99</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" s="5" t="n">
+        <v>59.99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B62" t="n">
         <v>29.29</v>
       </c>
-      <c r="C62" s="5" t="n">
+      <c r="C62" t="n">
         <v>29.29</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" s="5" t="n">
+        <v>29.29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B63" t="n">
         <v>20.42</v>
       </c>
-      <c r="C63" s="5" t="n">
+      <c r="C63" t="n">
         <v>20.42</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" s="5" t="n">
+        <v>20.42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B64" t="n">
         <v>15.78</v>
       </c>
-      <c r="C64" s="5" t="n">
+      <c r="C64" t="n">
         <v>15.78</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" s="5" t="n">
+        <v>15.78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B65" t="n">
         <v>24.79</v>
       </c>
-      <c r="C65" s="5" t="n">
+      <c r="C65" t="n">
         <v>24.79</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65" s="5" t="n">
+        <v>24.79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B66" t="n">
         <v>38.55</v>
       </c>
-      <c r="C66" s="5" t="n">
+      <c r="C66" s="6" t="n">
         <v>38.55</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66" s="5" t="n">
+        <v>36.66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B67" t="n">
         <v>12.96</v>
       </c>
-      <c r="C67" s="5" t="n">
+      <c r="C67" t="n">
         <v>12.96</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67" s="5" t="n">
+        <v>12.96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B68" t="n">
         <v>18.35</v>
       </c>
-      <c r="C68" s="5" t="n">
+      <c r="C68" t="n">
         <v>18.35</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68" s="5" t="n">
+        <v>18.35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B69" t="n">
         <v>39.94</v>
       </c>
-      <c r="C69" s="5" t="n">
+      <c r="C69" t="n">
         <v>39.94</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69" s="5" t="n">
+        <v>39.94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B70" t="n">
         <v>10</v>
       </c>
-      <c r="C70" s="5" t="n">
+      <c r="C70" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70" s="5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
       </c>
-      <c r="C71" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B72" t="n">
         <v>21.37</v>
       </c>
-      <c r="C72" s="5" t="n">
+      <c r="C72" t="n">
         <v>21.37</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72" s="5" t="n">
+        <v>21.37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B73" t="n">
         <v>60.61</v>
       </c>
-      <c r="C73" s="5" t="n">
+      <c r="C73" t="n">
         <v>60.61</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73" s="5" t="n">
+        <v>60.61</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B74" t="n">
         <v>23.96</v>
       </c>
-      <c r="C74" s="5" t="n">
+      <c r="C74" t="n">
         <v>23.96</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74" s="5" t="n">
+        <v>23.96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
       </c>
-      <c r="C75" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B76" t="n">
         <v>25.01</v>
       </c>
-      <c r="C76" s="5" t="n">
+      <c r="C76" t="n">
         <v>25.01</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76" s="5" t="n">
+        <v>25.01</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B77" t="n">
         <v>9.949999999999999</v>
       </c>
-      <c r="C77" s="5" t="n">
+      <c r="C77" t="n">
         <v>9.949999999999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77" s="5" t="n">
+        <v>9.949999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B78" t="n">
         <v>30.26</v>
       </c>
-      <c r="C78" s="5" t="n">
+      <c r="C78" t="n">
         <v>30.26</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78" s="5" t="n">
+        <v>30.26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B79" t="n">
         <v>35.38</v>
       </c>
-      <c r="C79" s="5" t="n">
+      <c r="C79" t="n">
         <v>35.38</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79" s="5" t="n">
+        <v>35.38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B80" t="n">
         <v>37.37</v>
       </c>
-      <c r="C80" s="5" t="n">
+      <c r="C80" t="n">
         <v>37.37</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80" s="5" t="n">
+        <v>37.37</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B81" t="n">
         <v>29.99</v>
       </c>
-      <c r="C81" s="5" t="n">
+      <c r="C81" t="n">
         <v>29.99</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81" s="5" t="n">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B82" t="n">
         <v>24.99</v>
       </c>
-      <c r="C82" s="5" t="n">
+      <c r="C82" t="n">
         <v>24.99</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82" s="5" t="n">
+        <v>24.99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B83" t="n">
         <v>28.99</v>
       </c>
-      <c r="C83" s="5" t="n">
+      <c r="C83" t="n">
         <v>28.99</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83" s="5" t="n">
+        <v>28.99</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B84" t="n">
         <v>3.98</v>
       </c>
-      <c r="C84" s="5" t="n">
+      <c r="C84" t="n">
         <v>3.98</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84" s="5" t="n">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B85" t="n">
         <v>22.39</v>
       </c>
-      <c r="C85" s="5" t="n">
+      <c r="C85" t="n">
         <v>22.39</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85" s="5" t="n">
+        <v>22.39</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B86" t="n">
         <v>23.49</v>
       </c>
-      <c r="C86" s="5" t="n">
+      <c r="C86" t="n">
         <v>23.49</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86" s="5" t="n">
+        <v>23.49</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B87" t="n">
         <v>19.3</v>
       </c>
-      <c r="C87" s="5" t="n">
+      <c r="C87" t="n">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87" s="5" t="n">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B88" t="n">
         <v>23.99</v>
       </c>
-      <c r="C88" s="5" t="n">
+      <c r="C88" t="n">
         <v>23.99</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88" s="5" t="n">
+        <v>23.99</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B89" t="n">
         <v>23.99</v>
       </c>
-      <c r="C89" s="5" t="n">
+      <c r="C89" t="n">
         <v>23.99</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89" s="5" t="n">
+        <v>23.99</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B90" t="n">
         <v>23.49</v>
       </c>
-      <c r="C90" s="5" t="n">
+      <c r="C90" t="n">
         <v>23.49</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90" s="5" t="n">
+        <v>23.49</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B91" t="n">
         <v>16.19</v>
       </c>
-      <c r="C91" s="5" t="n">
+      <c r="C91" t="n">
         <v>16.19</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D91" s="5" t="n">
+        <v>16.19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B92" t="n">
         <v>21.13</v>
       </c>
-      <c r="C92" s="5" t="n">
+      <c r="C92" t="n">
         <v>21.13</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92" s="5" t="n">
+        <v>21.13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B93" t="n">
         <v>24.99</v>
       </c>
-      <c r="C93" s="5" t="n">
+      <c r="C93" t="n">
         <v>24.99</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93" s="5" t="n">
+        <v>24.99</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B94" t="n">
         <v>29.97</v>
       </c>
-      <c r="C94" s="5" t="n">
+      <c r="C94" s="6" t="n">
         <v>29.97</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94" s="5" t="n">
+        <v>28.08</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B95" t="n">
         <v>22.76</v>
       </c>
-      <c r="C95" s="5" t="n">
+      <c r="C95" t="n">
         <v>22.76</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95" s="5" t="n">
+        <v>22.76</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
       </c>
-      <c r="C96" s="5" t="n">
+      <c r="C96" t="n">
         <v>93.56</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96" s="5" t="n">
+        <v>93.56</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B97" t="n">
         <v>21.36</v>
       </c>
-      <c r="C97" s="5" t="n">
+      <c r="C97" t="n">
         <v>21.36</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="D97" s="5" t="n">
+        <v>21.36</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B98" t="n">
         <v>29.65</v>
       </c>
-      <c r="C98" s="5" t="n">
+      <c r="C98" t="n">
         <v>29.65</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98" s="5" t="n">
+        <v>29.65</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B99" t="n">
         <v>24.43</v>
       </c>
-      <c r="C99" s="5" t="n">
+      <c r="C99" t="n">
         <v>24.43</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99" s="5" t="n">
+        <v>24.43</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B100" t="n">
         <v>23.96</v>
       </c>
-      <c r="C100" s="5" t="n">
+      <c r="C100" t="n">
         <v>23.96</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100" s="5" t="n">
+        <v>23.96</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B101" t="n">
         <v>49.95</v>
       </c>
-      <c r="C101" s="5" t="n">
+      <c r="C101" t="n">
         <v>49.95</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="D101" s="5" t="n">
+        <v>49.95</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B102" t="n">
         <v>35.24</v>
@@ -5525,323 +6562,413 @@
       <c r="C102" s="5" t="n">
         <v>35.24</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102" s="6" t="n">
+        <v>35.94</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B103" t="n">
         <v>7.99</v>
       </c>
-      <c r="C103" s="5" t="n">
+      <c r="C103" t="n">
         <v>7.99</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103" s="5" t="n">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B104" t="n">
         <v>40.79</v>
       </c>
-      <c r="C104" s="5" t="n">
+      <c r="C104" t="n">
         <v>40.79</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="D104" s="5" t="n">
+        <v>40.79</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B105" t="n">
         <v>9.949999999999999</v>
       </c>
-      <c r="C105" s="5" t="n">
+      <c r="C105" t="n">
         <v>9.949999999999999</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="D105" s="5" t="n">
+        <v>9.949999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B106" t="n">
         <v>41.29</v>
       </c>
-      <c r="C106" s="5" t="n">
+      <c r="C106" t="n">
         <v>41.29</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="D106" s="5" t="n">
+        <v>41.29</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B107" t="n">
         <v>69.26000000000001</v>
       </c>
-      <c r="C107" s="5" t="n">
+      <c r="C107" t="n">
         <v>69.26000000000001</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="D107" s="5" t="n">
+        <v>69.26000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B108" t="n">
         <v>79.97</v>
       </c>
-      <c r="C108" s="5" t="n">
+      <c r="C108" t="n">
         <v>79.97</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="D108" s="5" t="n">
+        <v>79.97</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
       </c>
-      <c r="C109" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="C109" t="n">
+        <v>0</v>
+      </c>
+      <c r="D109" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B110" t="n">
         <v>45.8</v>
       </c>
-      <c r="C110" s="5" t="n">
+      <c r="C110" t="n">
         <v>45.8</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="D110" s="5" t="n">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B111" t="n">
         <v>22.93</v>
       </c>
-      <c r="C111" s="5" t="n">
+      <c r="C111" t="n">
         <v>22.93</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="D111" s="5" t="n">
+        <v>22.93</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B112" t="n">
         <v>42.09</v>
       </c>
-      <c r="C112" s="5" t="n">
+      <c r="C112" t="n">
         <v>42.09</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="D112" s="5" t="n">
+        <v>42.09</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B113" t="n">
         <v>103.75</v>
       </c>
-      <c r="C113" s="5" t="n">
+      <c r="C113" t="n">
         <v>103.75</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="D113" s="5" t="n">
+        <v>103.75</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B114" t="n">
         <v>12.47</v>
       </c>
-      <c r="C114" s="5" t="n">
+      <c r="C114" t="n">
         <v>12.47</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="D114" s="5" t="n">
+        <v>12.47</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B115" t="n">
         <v>24</v>
       </c>
-      <c r="C115" s="5" t="n">
+      <c r="C115" t="n">
         <v>24</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="D115" s="5" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
       </c>
-      <c r="C116" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="C116" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
       </c>
-      <c r="C117" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="C117" t="n">
+        <v>0</v>
+      </c>
+      <c r="D117" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B118" t="n">
         <v>49.99</v>
       </c>
-      <c r="C118" s="5" t="n">
+      <c r="C118" t="n">
         <v>49.99</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="D118" s="5" t="n">
+        <v>49.99</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B119" t="n">
         <v>58.74</v>
       </c>
-      <c r="C119" s="5" t="n">
+      <c r="C119" t="n">
         <v>58.74</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="D119" s="5" t="n">
+        <v>58.74</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
       </c>
-      <c r="C120" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="C120" t="n">
+        <v>0</v>
+      </c>
+      <c r="D120" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B121" s="5" t="n">
         <v>144.55</v>
       </c>
-      <c r="C121" s="6" t="n">
+      <c r="C121" t="n">
         <v>144.72</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="D121" s="6" t="n">
+        <v>144.72</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B122" t="n">
         <v>47.3</v>
       </c>
-      <c r="C122" s="5" t="n">
+      <c r="C122" t="n">
         <v>47.3</v>
       </c>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="D122" s="5" t="n">
+        <v>47.3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B123" t="n">
         <v>39.98</v>
       </c>
-      <c r="C123" s="5" t="n">
+      <c r="C123" t="n">
         <v>39.98</v>
       </c>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="D123" s="5" t="n">
+        <v>39.98</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B124" t="n">
         <v>51.08</v>
       </c>
-      <c r="C124" s="5" t="n">
+      <c r="C124" t="n">
         <v>51.08</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="D124" s="5" t="n">
+        <v>51.08</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B125" t="n">
         <v>44.69</v>
       </c>
-      <c r="C125" s="5" t="n">
+      <c r="C125" t="n">
         <v>44.69</v>
       </c>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="D125" s="5" t="n">
+        <v>44.69</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B126" t="n">
         <v>24.5</v>
       </c>
-      <c r="C126" s="5" t="n">
+      <c r="C126" t="n">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="127" spans="1:3">
+      <c r="D126" s="5" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
       </c>
-      <c r="C127" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
       </c>
-      <c r="C128" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="C128" t="n">
+        <v>0</v>
+      </c>
+      <c r="D128" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B129" t="n">
         <v>17.95</v>
       </c>
-      <c r="C129" s="5" t="n">
+      <c r="C129" t="n">
         <v>17.95</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="D129" s="5" t="n">
+        <v>17.95</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B130" t="n">
         <v>25.2</v>
       </c>
-      <c r="C130" s="5" t="n">
+      <c r="C130" t="n">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="D130" s="5" t="n">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B131" t="n">
         <v>31</v>
       </c>
-      <c r="C131" s="5" t="n">
+      <c r="C131" t="n">
+        <v>31</v>
+      </c>
+      <c r="D131" s="5" t="n">
         <v>31</v>
       </c>
     </row>
@@ -5856,7 +6983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5867,105 +6994,132 @@
     <col customWidth="1" max="1" min="1" width="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B2" t="n">
         <v>39.99</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" t="n">
         <v>39.99</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="5" t="n">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B3" t="n">
         <v>29.99</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" t="n">
         <v>29.99</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="5" t="n">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>371</v>
-      </c>
-      <c r="B4" s="6" t="n">
+        <v>372</v>
+      </c>
+      <c r="B4" t="n">
         <v>43.8</v>
       </c>
-      <c r="C4" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>43.84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B5" t="n">
         <v>48.99</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" t="n">
         <v>48.99</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="5" t="n">
+        <v>48.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B7" t="n">
         <v>42.45</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" t="n">
         <v>42.45</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="5" t="n">
+        <v>42.45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B8" t="n">
         <v>39.99</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" t="n">
         <v>39.99</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="5" t="n">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B9" s="6" t="n">
         <v>20.92</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" t="n">
         <v>20.27</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="5" t="n">
+        <v>20.27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B10" t="n">
         <v>29.99</v>
@@ -5973,87 +7127,111 @@
       <c r="C10" s="5" t="n">
         <v>29.99</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="6" t="n">
+        <v>34.99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B11" s="6" t="n">
         <v>38.75</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" t="n">
         <v>20.49</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="5" t="n">
+        <v>20.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B12" s="5" t="n">
         <v>19.99</v>
       </c>
-      <c r="C12" s="6" t="n">
+      <c r="C12" t="n">
         <v>24.97</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="6" t="n">
+        <v>24.97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B15" t="n">
         <v>39.99</v>
       </c>
-      <c r="C15" s="5" t="n">
+      <c r="C15" t="n">
         <v>39.99</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="5" t="n">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B16" s="6" t="n">
         <v>45.97</v>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="C16" t="n">
         <v>44.56</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="5" t="n">
+        <v>44.56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B18" t="n">
         <v>21.95</v>
@@ -6061,92 +7239,119 @@
       <c r="C18" s="5" t="n">
         <v>21.95</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="6" t="n">
+        <v>23.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B19" s="6" t="n">
         <v>24.85</v>
       </c>
-      <c r="C19" s="5" t="n">
+      <c r="C19" t="n">
         <v>13.99</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="5" t="n">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B20" t="n">
         <v>8.449999999999999</v>
       </c>
-      <c r="C20" s="5" t="n">
+      <c r="C20" t="n">
         <v>8.449999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="5" t="n">
+        <v>8.449999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
-      <c r="C21" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
-      <c r="C22" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B23" s="6" t="n">
         <v>28.44</v>
       </c>
-      <c r="C23" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
-      <c r="C24" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
-      <c r="C25" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
-      <c r="C26" s="7" t="n">
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6161,7 +7366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6172,50 +7377,62 @@
     <col customWidth="1" max="1" min="1" width="27.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B2" t="n">
         <v>125</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" t="n">
         <v>125</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="5" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B3" t="n">
         <v>79.87</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" t="n">
         <v>79.87</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="5" t="n">
+        <v>79.87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B4" t="n">
         <v>4.97</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" t="n">
         <v>4.97</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="5" t="n">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B5" t="n">
         <v>177</v>
@@ -6223,136 +7440,175 @@
       <c r="C5" s="5" t="n">
         <v>177</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="6" t="n">
+        <v>179.97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B7" t="n">
         <v>5.79</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" t="n">
         <v>5.79</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="5" t="n">
+        <v>5.79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B8" t="n">
         <v>4.95</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" t="n">
         <v>4.95</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="5" t="n">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B9" t="n">
         <v>7.99</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" t="n">
         <v>7.99</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="5" t="n">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B10" t="n">
         <v>11</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" t="n">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="5" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B11" t="n">
         <v>17.99</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" t="n">
         <v>17.99</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="5" t="n">
+        <v>17.99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B12" t="n">
         <v>149.95</v>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" t="n">
         <v>149.95</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="5" t="n">
+        <v>149.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B13" t="n">
         <v>19.99</v>
       </c>
-      <c r="C13" s="5" t="n">
+      <c r="C13" t="n">
         <v>19.99</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="5" t="n">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B14" t="n">
         <v>7.49</v>
       </c>
-      <c r="C14" s="5" t="n">
+      <c r="C14" t="n">
         <v>7.49</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="5" t="n">
+        <v>7.49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" s="5" t="n">
+      <c r="C15" t="n">
         <v>24.95</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="5" t="n">
+        <v>24.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B16" t="n">
         <v>12.99</v>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="C16" t="n">
         <v>12.99</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="5" t="n">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B17" t="n">
         <v>7.99</v>
       </c>
-      <c r="C17" s="5" t="n">
+      <c r="C17" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="D17" s="5" t="n">
         <v>7.99</v>
       </c>
     </row>
@@ -6367,7 +7623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -6379,121 +7635,154 @@
     <col bestFit="1" customWidth="1" max="7" min="7" width="10.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B2" t="n">
         <v>119</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" t="n">
         <v>119</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="5" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B3" t="n">
         <v>64.97</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" t="n">
         <v>64.97</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="5" t="n">
+        <v>64.97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B4" t="n">
         <v>19.95</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" t="n">
         <v>19.95</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="5" t="n">
+        <v>19.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B5" t="n">
         <v>4.59</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" t="n">
         <v>4.59</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="5" t="n">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B6" t="n">
         <v>22.99</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="6" t="n">
         <v>22.99</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B7" t="n">
         <v>34.95</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" t="n">
         <v>34.95</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="5" t="n">
+        <v>34.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B8" t="n">
         <v>12.99</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" t="n">
         <v>12.99</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="5" t="n">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B9" t="n">
         <v>13.13</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" t="n">
         <v>13.13</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="5" t="n">
+        <v>13.13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B10" s="6" t="n">
         <v>59.96</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" t="n">
         <v>56.99</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="5" t="n">
+        <v>56.99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B11" t="n">
         <v>54.94</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" t="n">
+        <v>54.94</v>
+      </c>
+      <c r="D11" s="5" t="n">
         <v>54.94</v>
       </c>
     </row>
